--- a/Стратегия тестирования.xlsx
+++ b/Стратегия тестирования.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68C7AE8-9D37-4CCC-8C32-58C24848CE12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B78A47C-0008-4B5C-A074-176447FB6507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="113">
   <si>
     <t>Цели доработки</t>
   </si>
@@ -225,27 +225,6 @@
     <t>graph</t>
   </si>
   <si>
-    <t>{v0,v1,v2,v3,v4,v5}</t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>v5</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t>v2</t>
-  </si>
-  <si>
-    <t>distances</t>
-  </si>
-  <si>
-    <t>{{v0,v1,10}, {v0,v3,1}, {v0,v5,20}, {v1,v2,1}, {v1,v5,1}, {v2,v3,4}, {v3,v4,3}, {v3,v5,2}, {v4,v5,1}}</t>
-  </si>
-  <si>
     <t>Проверить работу пунктов меню и кнопок во всех окнах приложения</t>
   </si>
   <si>
@@ -397,6 +376,15 @@
   </si>
   <si>
     <t>Регистрация</t>
+  </si>
+  <si>
+    <t>newton</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>1 0 2 4 0 1 1 2 3</t>
   </si>
 </sst>
 </file>
@@ -1617,7 +1605,7 @@
     <row r="2" spans="1:29" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B2" s="2"/>
       <c r="C2" s="63" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1904,11 +1892,11 @@
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="55" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>38</v>
@@ -1936,27 +1924,27 @@
     </row>
     <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B11" s="8">
         <v>1</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D11" s="9">
         <v>0.4</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="74" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9" t="s">
         <v>40</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="75"/>
@@ -1994,11 +1982,11 @@
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="55" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>39</v>
@@ -2032,14 +2020,14 @@
         <v>2</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D13" s="9">
         <v>0.4</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="55" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9" t="s">
@@ -2084,11 +2072,11 @@
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="55" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>41</v>
@@ -32727,7 +32715,7 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32769,16 +32757,16 @@
         <v>35</v>
       </c>
       <c r="I1" s="62" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="J1" s="62" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="K1" s="62" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="L1" s="62" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
@@ -32786,13 +32774,13 @@
         <v>48</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C2" s="57" t="s">
         <v>49</v>
       </c>
       <c r="D2" s="58" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E2" s="57"/>
       <c r="F2" s="57"/>
@@ -32810,13 +32798,13 @@
     <row r="3" spans="1:12" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="77"/>
       <c r="B3" s="57" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C3" s="57" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="58" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E3" s="57"/>
       <c r="F3" s="57"/>
@@ -32834,13 +32822,13 @@
     <row r="4" spans="1:12" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="60"/>
       <c r="B4" s="57" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C4" s="57" t="s">
         <v>51</v>
       </c>
       <c r="D4" s="58" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E4" s="57"/>
       <c r="F4" s="57"/>
@@ -32860,7 +32848,7 @@
         <v>52</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C5" s="57" t="s">
         <v>53</v>
@@ -32868,7 +32856,7 @@
       <c r="D5" s="58"/>
       <c r="E5" s="57"/>
       <c r="F5" s="58" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G5" s="57"/>
       <c r="H5" s="57"/>
@@ -32880,7 +32868,7 @@
     <row r="6" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="77"/>
       <c r="B6" s="57" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C6" s="57" t="s">
         <v>54</v>
@@ -32888,7 +32876,7 @@
       <c r="D6" s="58"/>
       <c r="E6" s="57"/>
       <c r="F6" s="58" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G6" s="57"/>
       <c r="H6" s="57"/>
@@ -32900,7 +32888,7 @@
     <row r="7" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="60"/>
       <c r="B7" s="57" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C7" s="57" t="s">
         <v>55</v>
@@ -32908,7 +32896,7 @@
       <c r="D7" s="58"/>
       <c r="E7" s="57"/>
       <c r="F7" s="58" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G7" s="57"/>
       <c r="H7" s="57"/>
@@ -32922,15 +32910,15 @@
         <v>56</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C8" s="57" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D8" s="58"/>
       <c r="E8" s="57"/>
       <c r="F8" s="58" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G8" s="57"/>
       <c r="H8" s="57"/>
@@ -32942,15 +32930,15 @@
     <row r="9" spans="1:12" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="77"/>
       <c r="B9" s="57" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C9" s="57" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D9" s="58"/>
       <c r="E9" s="57"/>
       <c r="F9" s="58" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G9" s="57"/>
       <c r="H9" s="57"/>
@@ -32962,7 +32950,7 @@
     <row r="10" spans="1:12" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="60"/>
       <c r="B10" s="57" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C10" s="57" t="s">
         <v>57</v>
@@ -32970,7 +32958,7 @@
       <c r="D10" s="58"/>
       <c r="E10" s="57"/>
       <c r="F10" s="58" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G10" s="57"/>
       <c r="H10" s="57"/>
@@ -32982,15 +32970,15 @@
     <row r="11" spans="1:12" ht="106.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="60"/>
       <c r="B11" s="57" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C11" s="57" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D11" s="58"/>
       <c r="E11" s="57"/>
       <c r="F11" s="58" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G11" s="57"/>
       <c r="H11" s="57"/>
@@ -33002,15 +32990,15 @@
     <row r="12" spans="1:12" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="60"/>
       <c r="B12" s="57" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C12" s="57" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D12" s="58"/>
       <c r="E12" s="57"/>
       <c r="F12" s="58" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G12" s="57"/>
       <c r="H12" s="57"/>
@@ -33022,15 +33010,15 @@
     <row r="13" spans="1:12" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="60"/>
       <c r="B13" s="57" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C13" s="57" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D13" s="58"/>
       <c r="E13" s="57"/>
       <c r="F13" s="58" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G13" s="57"/>
       <c r="H13" s="57"/>
@@ -33042,15 +33030,15 @@
     <row r="14" spans="1:12" ht="144.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="60"/>
       <c r="B14" s="57" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C14" s="57" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D14" s="58"/>
       <c r="E14" s="57"/>
       <c r="F14" s="58" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G14" s="57"/>
       <c r="H14" s="57"/>
@@ -33065,12 +33053,12 @@
         <v>58</v>
       </c>
       <c r="C15" s="57" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D15" s="58"/>
       <c r="E15" s="57"/>
       <c r="F15" s="58" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G15" s="57"/>
       <c r="H15" s="57"/>
@@ -33084,7 +33072,7 @@
         <v>59</v>
       </c>
       <c r="B16" s="57" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C16" s="57" t="s">
         <v>53</v>
@@ -33092,7 +33080,7 @@
       <c r="D16" s="58"/>
       <c r="E16" s="57"/>
       <c r="F16" s="58" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G16" s="57"/>
       <c r="H16" s="57"/>
@@ -33112,7 +33100,7 @@
       <c r="D17" s="58"/>
       <c r="E17" s="57"/>
       <c r="F17" s="58" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G17" s="57"/>
       <c r="H17" s="57"/>
@@ -33124,15 +33112,15 @@
     <row r="18" spans="1:12" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="60"/>
       <c r="B18" s="57" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C18" s="57" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D18" s="57"/>
       <c r="E18" s="57"/>
       <c r="F18" s="58" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G18" s="57"/>
       <c r="H18" s="57"/>
@@ -33144,7 +33132,7 @@
     <row r="19" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="60"/>
       <c r="B19" s="57" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C19" s="57" t="s">
         <v>62</v>
@@ -33152,7 +33140,7 @@
       <c r="D19" s="57"/>
       <c r="E19" s="57"/>
       <c r="F19" s="58" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G19" s="57"/>
       <c r="H19" s="57"/>
@@ -33164,7 +33152,7 @@
     <row r="20" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="60"/>
       <c r="B20" s="57" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C20" s="57" t="s">
         <v>63</v>
@@ -33172,7 +33160,7 @@
       <c r="D20" s="58"/>
       <c r="E20" s="57"/>
       <c r="F20" s="58" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G20" s="57"/>
       <c r="H20" s="57"/>
@@ -33217,7 +33205,7 @@
         <v>64</v>
       </c>
       <c r="C23" s="57" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D23" s="58"/>
       <c r="E23" s="57"/>
@@ -33252,8 +33240,8 @@
       <c r="B25" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="57" t="s">
-        <v>67</v>
+      <c r="C25" s="57">
+        <v>3</v>
       </c>
       <c r="D25" s="57"/>
       <c r="E25" s="57"/>
@@ -33267,11 +33255,9 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="60"/>
-      <c r="B26" s="57" t="s">
-        <v>68</v>
-      </c>
+      <c r="B26" s="57"/>
       <c r="C26" s="57" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="D26" s="58"/>
       <c r="E26" s="57"/>
@@ -33286,11 +33272,9 @@
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="60"/>
       <c r="B27" s="57" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
-      <c r="C27" s="57" t="s">
-        <v>71</v>
-      </c>
+      <c r="C27" s="57"/>
       <c r="D27" s="58"/>
       <c r="E27" s="57"/>
       <c r="F27" s="57"/>
@@ -33301,14 +33285,10 @@
       <c r="K27" s="57"/>
       <c r="L27" s="57"/>
     </row>
-    <row r="28" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="61"/>
-      <c r="B28" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="57" t="s">
-        <v>73</v>
-      </c>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="57"/>
       <c r="E28" s="57"/>
       <c r="F28" s="57"/>
@@ -33321,10 +33301,10 @@
     </row>
     <row r="29" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="76" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B29" s="57" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C29" s="57" t="s">
         <v>53</v>
@@ -33332,7 +33312,7 @@
       <c r="D29" s="58"/>
       <c r="E29" s="57"/>
       <c r="F29" s="58" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G29" s="57"/>
       <c r="H29" s="57"/>
@@ -33352,7 +33332,7 @@
       <c r="D30" s="58"/>
       <c r="E30" s="57"/>
       <c r="F30" s="58" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G30" s="57"/>
       <c r="H30" s="57"/>
@@ -33364,7 +33344,7 @@
     <row r="31" spans="1:12" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="60"/>
       <c r="B31" s="57" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C31" s="57" t="s">
         <v>57</v>
@@ -33372,7 +33352,7 @@
       <c r="D31" s="57"/>
       <c r="E31" s="57"/>
       <c r="F31" s="58" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G31" s="57"/>
       <c r="H31" s="57"/>
@@ -33384,7 +33364,7 @@
     <row r="32" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="60"/>
       <c r="B32" s="57" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C32" s="57" t="s">
         <v>62</v>
@@ -33392,7 +33372,7 @@
       <c r="D32" s="57"/>
       <c r="E32" s="57"/>
       <c r="F32" s="58" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G32" s="57"/>
       <c r="H32" s="57"/>
@@ -33404,7 +33384,7 @@
     <row r="33" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="60"/>
       <c r="B33" s="57" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C33" s="57" t="s">
         <v>63</v>
@@ -33412,7 +33392,7 @@
       <c r="D33" s="58"/>
       <c r="E33" s="57"/>
       <c r="F33" s="58" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G33" s="57"/>
       <c r="H33" s="57"/>
@@ -33457,7 +33437,7 @@
         <v>64</v>
       </c>
       <c r="C36" s="57" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D36" s="58"/>
       <c r="E36" s="57"/>
@@ -33489,8 +33469,12 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="60"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="57"/>
+      <c r="B38" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="57">
+        <v>2</v>
+      </c>
       <c r="D38" s="57"/>
       <c r="E38" s="57"/>
       <c r="F38" s="57"/>
@@ -33503,7 +33487,9 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="60"/>
-      <c r="B39" s="57"/>
+      <c r="B39" s="57" t="s">
+        <v>111</v>
+      </c>
       <c r="C39" s="57"/>
       <c r="D39" s="58"/>
       <c r="E39" s="57"/>
@@ -33580,7 +33566,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D1" s="19"/>
       <c r="E1" s="20"/>
@@ -33607,7 +33593,7 @@
         <v>18</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H2" s="27"/>
     </row>
@@ -33629,7 +33615,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="73" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="20"/>
@@ -33677,10 +33663,10 @@
     <row r="8" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="31"/>
       <c r="B8" s="32" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D8" s="33"/>
       <c r="H8" s="32"/>
@@ -33688,7 +33674,7 @@
     <row r="9" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="31"/>
       <c r="B9" s="32" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C9" s="38">
         <v>123</v>
@@ -33768,7 +33754,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="67" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C13" s="67" t="s">
         <v>49</v>
@@ -33789,7 +33775,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="67" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C14" s="67" t="s">
         <v>50</v>
@@ -33810,7 +33796,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="67" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C15" s="67" t="s">
         <v>51</v>

--- a/Стратегия тестирования.xlsx
+++ b/Стратегия тестирования.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B78A47C-0008-4B5C-A074-176447FB6507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1292E4-B819-4B27-AA30-F1EC184CC573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Тест-план" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="122">
   <si>
     <t>Цели доработки</t>
   </si>
@@ -386,6 +386,33 @@
   <si>
     <t>1 0 2 4 0 1 1 2 3</t>
   </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>Тест-кейс для проверки правильности просмотра статистики</t>
+  </si>
+  <si>
+    <t>Пройти аутентификацию пользовтеля с ролью админ</t>
+  </si>
+  <si>
+    <t>Открылось окно со статистикой пользователя</t>
+  </si>
+  <si>
+    <t>Нажать кнопку "Sort Graph"</t>
+  </si>
+  <si>
+    <t>Окно обновилось, отобразилась остортированная статистика</t>
+  </si>
+  <si>
+    <t>Нажать кнопку "Sort Newton"</t>
+  </si>
+  <si>
+    <t>Нажать кнопку "Sort Music"</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
 </sst>
 </file>
 
@@ -394,11 +421,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-mmm\-yyyy"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1024,21 +1059,21 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1047,195 +1082,198 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="35" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="60% — акцент3" xfId="2" builtinId="40"/>
@@ -1554,8 +1592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1890,7 +1928,9 @@
       <c r="D10" s="9">
         <v>0.4</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="9" t="s">
+        <v>113</v>
+      </c>
       <c r="F10" s="55" t="s">
         <v>108</v>
       </c>
@@ -1935,7 +1975,9 @@
       <c r="D11" s="9">
         <v>0.4</v>
       </c>
-      <c r="E11" s="9"/>
+      <c r="E11" s="9" t="s">
+        <v>113</v>
+      </c>
       <c r="F11" s="74" t="s">
         <v>89</v>
       </c>
@@ -1972,7 +2014,7 @@
         <v>42</v>
       </c>
       <c r="B12" s="50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="54" t="s">
         <v>45</v>
@@ -1980,7 +2022,9 @@
       <c r="D12" s="9">
         <v>0.4</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="9" t="s">
+        <v>113</v>
+      </c>
       <c r="F12" s="55" t="s">
         <v>89</v>
       </c>
@@ -2025,7 +2069,9 @@
       <c r="D13" s="9">
         <v>0.4</v>
       </c>
-      <c r="E13" s="9"/>
+      <c r="E13" s="9" t="s">
+        <v>113</v>
+      </c>
       <c r="F13" s="55" t="s">
         <v>89</v>
       </c>
@@ -2070,7 +2116,9 @@
       <c r="D14" s="9">
         <v>0.4</v>
       </c>
-      <c r="E14" s="9"/>
+      <c r="E14" s="9" t="s">
+        <v>113</v>
+      </c>
       <c r="F14" s="55" t="s">
         <v>89</v>
       </c>
@@ -32712,10 +32760,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0839C95-2436-4E60-B166-FE667F7FDF76}">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33529,8 +33577,253 @@
       <c r="K41" s="57"/>
       <c r="L41" s="57"/>
     </row>
+    <row r="42" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="58"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="57"/>
+      <c r="K42" s="57"/>
+      <c r="L42" s="57"/>
+    </row>
+    <row r="43" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="77"/>
+      <c r="B43" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" s="58"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="G43" s="57"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="57"/>
+      <c r="K43" s="57"/>
+      <c r="L43" s="57"/>
+    </row>
+    <row r="44" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="60"/>
+      <c r="B44" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="57"/>
+      <c r="K44" s="57"/>
+      <c r="L44" s="57"/>
+    </row>
+    <row r="45" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="60"/>
+      <c r="B45" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="G45" s="57"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="57"/>
+      <c r="K45" s="57"/>
+      <c r="L45" s="57"/>
+    </row>
+    <row r="46" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="60"/>
+      <c r="B46" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="G46" s="57"/>
+      <c r="H46" s="57"/>
+      <c r="I46" s="57"/>
+      <c r="J46" s="57"/>
+      <c r="K46" s="57"/>
+      <c r="L46" s="57"/>
+    </row>
+    <row r="47" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="60"/>
+      <c r="B47" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="G47" s="57"/>
+      <c r="H47" s="57"/>
+      <c r="I47" s="57"/>
+      <c r="J47" s="57"/>
+      <c r="K47" s="57"/>
+      <c r="L47" s="57"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" s="60"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="57"/>
+      <c r="I48" s="57"/>
+      <c r="J48" s="57"/>
+      <c r="K48" s="57"/>
+      <c r="L48" s="57"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="60"/>
+      <c r="B49" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="57"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="57"/>
+      <c r="K49" s="57"/>
+      <c r="L49" s="57"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="60"/>
+      <c r="B50" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="D50" s="58"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="57"/>
+      <c r="I50" s="57"/>
+      <c r="J50" s="57"/>
+      <c r="K50" s="57"/>
+      <c r="L50" s="57"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" s="60"/>
+      <c r="B51" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" s="57">
+        <v>111</v>
+      </c>
+      <c r="D51" s="58"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="57"/>
+      <c r="H51" s="57"/>
+      <c r="I51" s="57"/>
+      <c r="J51" s="57"/>
+      <c r="K51" s="57"/>
+      <c r="L51" s="57"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" s="60"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="57"/>
+      <c r="I52" s="57"/>
+      <c r="J52" s="57"/>
+      <c r="K52" s="57"/>
+      <c r="L52" s="57"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" s="60"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="58"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="57"/>
+      <c r="G53" s="57"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="57"/>
+      <c r="J53" s="57"/>
+      <c r="K53" s="57"/>
+      <c r="L53" s="57"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" s="60"/>
+      <c r="B54" s="57"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="58"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="57"/>
+      <c r="G54" s="57"/>
+      <c r="H54" s="57"/>
+      <c r="I54" s="57"/>
+      <c r="J54" s="57"/>
+      <c r="K54" s="57"/>
+      <c r="L54" s="57"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" s="61"/>
+      <c r="B55" s="57"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="57"/>
+      <c r="E55" s="57"/>
+      <c r="F55" s="57"/>
+      <c r="G55" s="57"/>
+      <c r="H55" s="57"/>
+      <c r="I55" s="57"/>
+      <c r="J55" s="57"/>
+      <c r="K55" s="57"/>
+      <c r="L55" s="57"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A42:A43"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A5:A6"/>

--- a/Стратегия тестирования.xlsx
+++ b/Стратегия тестирования.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1292E4-B819-4B27-AA30-F1EC184CC573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F7B280-10CB-4929-9075-0F664CA4E927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="121">
   <si>
     <t>Цели доработки</t>
   </si>
@@ -234,9 +234,6 @@
     <t>Вся команда</t>
   </si>
   <si>
-    <t>Степанов/ Денисов</t>
-  </si>
-  <si>
     <t>Запустить приложение</t>
   </si>
   <si>
@@ -375,9 +372,6 @@
     <t>протестирован, ошибок нет</t>
   </si>
   <si>
-    <t>Регистрация</t>
-  </si>
-  <si>
     <t>newton</t>
   </si>
   <si>
@@ -412,6 +406,9 @@
   </si>
   <si>
     <t>alpha</t>
+  </si>
+  <si>
+    <t>Рубанова</t>
   </si>
 </sst>
 </file>
@@ -1247,10 +1244,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="35" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1271,9 +1271,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="60% — акцент3" xfId="2" builtinId="40"/>
@@ -1593,7 +1590,7 @@
   <dimension ref="A1:AC1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1643,7 +1640,7 @@
     <row r="2" spans="1:29" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B2" s="2"/>
       <c r="C2" s="63" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1929,10 +1926,10 @@
         <v>0.4</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F10" s="55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9" t="s">
@@ -1964,29 +1961,29 @@
     </row>
     <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11" s="8">
         <v>1</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D11" s="9">
         <v>0.4</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F11" s="74" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9" t="s">
         <v>40</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="75"/>
@@ -2023,10 +2020,10 @@
         <v>0.4</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F12" s="55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9" t="s">
@@ -2070,10 +2067,10 @@
         <v>0.4</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F13" s="55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9" t="s">
@@ -2103,7 +2100,7 @@
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="51" t="s">
         <v>44</v>
       </c>
@@ -2117,14 +2114,14 @@
         <v>0.4</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F14" s="55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>41</v>
@@ -32805,30 +32802,30 @@
         <v>35</v>
       </c>
       <c r="I1" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="62" t="s">
+      <c r="L1" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="K1" s="62" t="s">
-        <v>91</v>
-      </c>
-      <c r="L1" s="62" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="2" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="79" t="s">
         <v>48</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" s="57" t="s">
         <v>49</v>
       </c>
       <c r="D2" s="58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E2" s="57"/>
       <c r="F2" s="57"/>
@@ -32846,13 +32843,13 @@
     <row r="3" spans="1:12" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="77"/>
       <c r="B3" s="57" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" s="57" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E3" s="57"/>
       <c r="F3" s="57"/>
@@ -32870,13 +32867,13 @@
     <row r="4" spans="1:12" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="60"/>
       <c r="B4" s="57" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" s="57" t="s">
         <v>51</v>
       </c>
       <c r="D4" s="58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E4" s="57"/>
       <c r="F4" s="57"/>
@@ -32892,11 +32889,11 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="80" t="s">
         <v>52</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="57" t="s">
         <v>53</v>
@@ -32904,7 +32901,7 @@
       <c r="D5" s="58"/>
       <c r="E5" s="57"/>
       <c r="F5" s="58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G5" s="57"/>
       <c r="H5" s="57"/>
@@ -32916,7 +32913,7 @@
     <row r="6" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="77"/>
       <c r="B6" s="57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" s="57" t="s">
         <v>54</v>
@@ -32924,7 +32921,7 @@
       <c r="D6" s="58"/>
       <c r="E6" s="57"/>
       <c r="F6" s="58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G6" s="57"/>
       <c r="H6" s="57"/>
@@ -32936,7 +32933,7 @@
     <row r="7" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="60"/>
       <c r="B7" s="57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" s="57" t="s">
         <v>55</v>
@@ -32944,7 +32941,7 @@
       <c r="D7" s="58"/>
       <c r="E7" s="57"/>
       <c r="F7" s="58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G7" s="57"/>
       <c r="H7" s="57"/>
@@ -32954,19 +32951,19 @@
       <c r="L7" s="57"/>
     </row>
     <row r="8" spans="1:12" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="80" t="s">
         <v>56</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D8" s="58"/>
       <c r="E8" s="57"/>
       <c r="F8" s="58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G8" s="57"/>
       <c r="H8" s="57"/>
@@ -32978,15 +32975,15 @@
     <row r="9" spans="1:12" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="77"/>
       <c r="B9" s="57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" s="57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D9" s="58"/>
       <c r="E9" s="57"/>
       <c r="F9" s="58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G9" s="57"/>
       <c r="H9" s="57"/>
@@ -32998,7 +32995,7 @@
     <row r="10" spans="1:12" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="60"/>
       <c r="B10" s="57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" s="57" t="s">
         <v>57</v>
@@ -33006,7 +33003,7 @@
       <c r="D10" s="58"/>
       <c r="E10" s="57"/>
       <c r="F10" s="58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G10" s="57"/>
       <c r="H10" s="57"/>
@@ -33018,15 +33015,15 @@
     <row r="11" spans="1:12" ht="106.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="60"/>
       <c r="B11" s="57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C11" s="57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D11" s="58"/>
       <c r="E11" s="57"/>
       <c r="F11" s="58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G11" s="57"/>
       <c r="H11" s="57"/>
@@ -33038,15 +33035,15 @@
     <row r="12" spans="1:12" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="60"/>
       <c r="B12" s="57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C12" s="57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D12" s="58"/>
       <c r="E12" s="57"/>
       <c r="F12" s="58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G12" s="57"/>
       <c r="H12" s="57"/>
@@ -33058,15 +33055,15 @@
     <row r="13" spans="1:12" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="60"/>
       <c r="B13" s="57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C13" s="57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D13" s="58"/>
       <c r="E13" s="57"/>
       <c r="F13" s="58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G13" s="57"/>
       <c r="H13" s="57"/>
@@ -33078,15 +33075,15 @@
     <row r="14" spans="1:12" ht="144.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="60"/>
       <c r="B14" s="57" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C14" s="57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D14" s="58"/>
       <c r="E14" s="57"/>
       <c r="F14" s="58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G14" s="57"/>
       <c r="H14" s="57"/>
@@ -33101,12 +33098,12 @@
         <v>58</v>
       </c>
       <c r="C15" s="57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D15" s="58"/>
       <c r="E15" s="57"/>
       <c r="F15" s="58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G15" s="57"/>
       <c r="H15" s="57"/>
@@ -33116,11 +33113,11 @@
       <c r="L15" s="57"/>
     </row>
     <row r="16" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="79" t="s">
+      <c r="A16" s="80" t="s">
         <v>59</v>
       </c>
       <c r="B16" s="57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C16" s="57" t="s">
         <v>53</v>
@@ -33128,7 +33125,7 @@
       <c r="D16" s="58"/>
       <c r="E16" s="57"/>
       <c r="F16" s="58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G16" s="57"/>
       <c r="H16" s="57"/>
@@ -33148,7 +33145,7 @@
       <c r="D17" s="58"/>
       <c r="E17" s="57"/>
       <c r="F17" s="58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G17" s="57"/>
       <c r="H17" s="57"/>
@@ -33160,15 +33157,15 @@
     <row r="18" spans="1:12" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="60"/>
       <c r="B18" s="57" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" s="57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D18" s="57"/>
       <c r="E18" s="57"/>
       <c r="F18" s="58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G18" s="57"/>
       <c r="H18" s="57"/>
@@ -33180,7 +33177,7 @@
     <row r="19" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="60"/>
       <c r="B19" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C19" s="57" t="s">
         <v>62</v>
@@ -33188,7 +33185,7 @@
       <c r="D19" s="57"/>
       <c r="E19" s="57"/>
       <c r="F19" s="58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G19" s="57"/>
       <c r="H19" s="57"/>
@@ -33200,7 +33197,7 @@
     <row r="20" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="60"/>
       <c r="B20" s="57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C20" s="57" t="s">
         <v>63</v>
@@ -33208,7 +33205,7 @@
       <c r="D20" s="58"/>
       <c r="E20" s="57"/>
       <c r="F20" s="58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G20" s="57"/>
       <c r="H20" s="57"/>
@@ -33253,7 +33250,7 @@
         <v>64</v>
       </c>
       <c r="C23" s="57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D23" s="58"/>
       <c r="E23" s="57"/>
@@ -33305,7 +33302,7 @@
       <c r="A26" s="60"/>
       <c r="B26" s="57"/>
       <c r="C26" s="57" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D26" s="58"/>
       <c r="E26" s="57"/>
@@ -33320,7 +33317,7 @@
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="60"/>
       <c r="B27" s="57" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C27" s="57"/>
       <c r="D27" s="58"/>
@@ -33348,11 +33345,11 @@
       <c r="L28" s="57"/>
     </row>
     <row r="29" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="76" t="s">
-        <v>88</v>
+      <c r="A29" s="78" t="s">
+        <v>87</v>
       </c>
       <c r="B29" s="57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C29" s="57" t="s">
         <v>53</v>
@@ -33360,7 +33357,7 @@
       <c r="D29" s="58"/>
       <c r="E29" s="57"/>
       <c r="F29" s="58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G29" s="57"/>
       <c r="H29" s="57"/>
@@ -33380,7 +33377,7 @@
       <c r="D30" s="58"/>
       <c r="E30" s="57"/>
       <c r="F30" s="58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G30" s="57"/>
       <c r="H30" s="57"/>
@@ -33392,7 +33389,7 @@
     <row r="31" spans="1:12" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="60"/>
       <c r="B31" s="57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C31" s="57" t="s">
         <v>57</v>
@@ -33400,7 +33397,7 @@
       <c r="D31" s="57"/>
       <c r="E31" s="57"/>
       <c r="F31" s="58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G31" s="57"/>
       <c r="H31" s="57"/>
@@ -33412,7 +33409,7 @@
     <row r="32" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="60"/>
       <c r="B32" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C32" s="57" t="s">
         <v>62</v>
@@ -33420,7 +33417,7 @@
       <c r="D32" s="57"/>
       <c r="E32" s="57"/>
       <c r="F32" s="58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G32" s="57"/>
       <c r="H32" s="57"/>
@@ -33432,7 +33429,7 @@
     <row r="33" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="60"/>
       <c r="B33" s="57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C33" s="57" t="s">
         <v>63</v>
@@ -33440,7 +33437,7 @@
       <c r="D33" s="58"/>
       <c r="E33" s="57"/>
       <c r="F33" s="58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G33" s="57"/>
       <c r="H33" s="57"/>
@@ -33485,7 +33482,7 @@
         <v>64</v>
       </c>
       <c r="C36" s="57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D36" s="58"/>
       <c r="E36" s="57"/>
@@ -33518,7 +33515,7 @@
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="60"/>
       <c r="B38" s="57" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C38" s="57">
         <v>2</v>
@@ -33536,7 +33533,7 @@
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="60"/>
       <c r="B39" s="57" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C39" s="57"/>
       <c r="D39" s="58"/>
@@ -33578,11 +33575,11 @@
       <c r="L41" s="57"/>
     </row>
     <row r="42" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="86" t="s">
-        <v>114</v>
+      <c r="A42" s="76" t="s">
+        <v>112</v>
       </c>
       <c r="B42" s="57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C42" s="57" t="s">
         <v>53</v>
@@ -33590,7 +33587,7 @@
       <c r="D42" s="58"/>
       <c r="E42" s="57"/>
       <c r="F42" s="58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G42" s="57"/>
       <c r="H42" s="57"/>
@@ -33602,7 +33599,7 @@
     <row r="43" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A43" s="77"/>
       <c r="B43" s="57" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C43" s="57" t="s">
         <v>61</v>
@@ -33610,7 +33607,7 @@
       <c r="D43" s="58"/>
       <c r="E43" s="57"/>
       <c r="F43" s="58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G43" s="57"/>
       <c r="H43" s="57"/>
@@ -33622,15 +33619,15 @@
     <row r="44" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="60"/>
       <c r="B44" s="57" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C44" s="57" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D44" s="57"/>
       <c r="E44" s="57"/>
       <c r="F44" s="58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G44" s="57"/>
       <c r="H44" s="57"/>
@@ -33642,15 +33639,15 @@
     <row r="45" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="60"/>
       <c r="B45" s="57" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C45" s="57" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D45" s="57"/>
       <c r="E45" s="57"/>
       <c r="F45" s="58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G45" s="57"/>
       <c r="H45" s="57"/>
@@ -33662,15 +33659,15 @@
     <row r="46" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A46" s="60"/>
       <c r="B46" s="57" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C46" s="57" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D46" s="57"/>
       <c r="E46" s="57"/>
       <c r="F46" s="58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G46" s="57"/>
       <c r="H46" s="57"/>
@@ -33682,15 +33679,15 @@
     <row r="47" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A47" s="60"/>
       <c r="B47" s="57" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C47" s="57" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D47" s="57"/>
       <c r="E47" s="57"/>
       <c r="F47" s="58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G47" s="57"/>
       <c r="H47" s="57"/>
@@ -33735,7 +33732,7 @@
         <v>64</v>
       </c>
       <c r="C50" s="57" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D50" s="58"/>
       <c r="E50" s="57"/>
@@ -33859,7 +33856,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D1" s="19"/>
       <c r="E1" s="20"/>
@@ -33873,11 +33870,11 @@
       <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="80"/>
-      <c r="B2" s="82" t="s">
+      <c r="A2" s="81"/>
+      <c r="B2" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="85" t="s">
         <v>48</v>
       </c>
       <c r="D2" s="23"/>
@@ -33886,14 +33883,14 @@
         <v>18</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="81"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="85"/>
+      <c r="A3" s="82"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="86"/>
       <c r="D3" s="23"/>
       <c r="E3" s="24"/>
       <c r="F3" s="25" t="s">
@@ -33908,7 +33905,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="73" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="20"/>
@@ -33956,10 +33953,10 @@
     <row r="8" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="31"/>
       <c r="B8" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D8" s="33"/>
       <c r="H8" s="32"/>
@@ -33967,7 +33964,7 @@
     <row r="9" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="31"/>
       <c r="B9" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" s="38">
         <v>123</v>
@@ -34047,7 +34044,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="67" t="s">
         <v>49</v>
@@ -34068,7 +34065,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="67" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14" s="67" t="s">
         <v>50</v>
@@ -34089,7 +34086,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="67" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" s="67" t="s">
         <v>51</v>

--- a/Стратегия тестирования.xlsx
+++ b/Стратегия тестирования.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F7B280-10CB-4929-9075-0F664CA4E927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD762FE-9511-4210-B7B0-2C1774913FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Тест-план" sheetId="1" r:id="rId1"/>
     <sheet name="Чек-лист" sheetId="7" r:id="rId2"/>
-    <sheet name="Тест-кейс 1" sheetId="3" r:id="rId3"/>
+    <sheet name="Тест-кейс 1 Денисов" sheetId="3" r:id="rId3"/>
+    <sheet name="Тест-кейс 2 Степанов" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="132">
   <si>
     <t>Цели доработки</t>
   </si>
@@ -291,9 +292,6 @@
     <t>тестирование</t>
   </si>
   <si>
-    <t>Наименование дефекта</t>
-  </si>
-  <si>
     <t>Важность</t>
   </si>
   <si>
@@ -410,6 +408,42 @@
   <si>
     <t>Рубанова</t>
   </si>
+  <si>
+    <t>Проверка кнопок</t>
+  </si>
+  <si>
+    <t>Тест-кейс 2</t>
+  </si>
+  <si>
+    <t>Тест-кейс для проверки корректности работы кнопок в приложении</t>
+  </si>
+  <si>
+    <t>1, 2, 3</t>
+  </si>
+  <si>
+    <t>Степанов Юрий</t>
+  </si>
+  <si>
+    <t>результат не отобразился</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нажать кнопки  "Send", "Return"  </t>
+  </si>
+  <si>
+    <t>протестирован, выявлены ошибки</t>
+  </si>
+  <si>
+    <t>Не отображается результат в окне "Graph"</t>
+  </si>
+  <si>
+    <t>Не отображается результат в окне "Newton"</t>
+  </si>
+  <si>
+    <t>Не отображается результат в окне "Music"</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
 </sst>
 </file>
 
@@ -418,11 +452,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-mmm\-yyyy"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -579,6 +621,17 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -612,7 +665,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1053,24 +1106,76 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1079,203 +1184,345 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="15" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="35" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="16" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="19" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="15" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="24" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="25" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="26" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="26" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="4" borderId="28" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="26" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="26" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="35" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="18" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="60% — акцент3" xfId="2" builtinId="40"/>
+    <cellStyle name="60% — акцент3 2" xfId="5" xr:uid="{DD38E02B-D06E-4299-9B25-B0CED69E740F}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{BDCE208E-A001-445B-B95C-1F68C52A99BB}"/>
+    <cellStyle name="Обычный 2 2" xfId="4" xr:uid="{3F14EB2C-9432-4844-A7E1-1D943D04C067}"/>
+    <cellStyle name="Обычный 3" xfId="3" xr:uid="{FF0643F8-AD5B-49CB-8D90-D6EDA969D924}"/>
+    <cellStyle name="Обычный 4" xfId="6" xr:uid="{3B7BBB30-AAE7-48A5-B0DB-EBF74D43467D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1589,8 +1836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1640,7 +1887,7 @@
     <row r="2" spans="1:29" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B2" s="2"/>
       <c r="C2" s="63" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1926,10 +2173,10 @@
         <v>0.4</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F10" s="55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9" t="s">
@@ -1961,21 +2208,21 @@
     </row>
     <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B11" s="8">
         <v>1</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D11" s="9">
         <v>0.4</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
-      <c r="F11" s="74" t="s">
+      <c r="F11" s="73" t="s">
         <v>88</v>
       </c>
       <c r="G11" s="9"/>
@@ -1983,28 +2230,28 @@
         <v>40</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J11" s="10"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="75"/>
-      <c r="O11" s="75"/>
-      <c r="P11" s="75"/>
-      <c r="Q11" s="75"/>
-      <c r="R11" s="75"/>
-      <c r="S11" s="75"/>
-      <c r="T11" s="75"/>
-      <c r="U11" s="75"/>
-      <c r="V11" s="75"/>
-      <c r="W11" s="75"/>
-      <c r="X11" s="75"/>
-      <c r="Y11" s="75"/>
-      <c r="Z11" s="75"/>
-      <c r="AA11" s="75"/>
-      <c r="AB11" s="75"/>
-      <c r="AC11" s="75"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="74"/>
+      <c r="O11" s="74"/>
+      <c r="P11" s="74"/>
+      <c r="Q11" s="74"/>
+      <c r="R11" s="74"/>
+      <c r="S11" s="74"/>
+      <c r="T11" s="74"/>
+      <c r="U11" s="74"/>
+      <c r="V11" s="74"/>
+      <c r="W11" s="74"/>
+      <c r="X11" s="74"/>
+      <c r="Y11" s="74"/>
+      <c r="Z11" s="74"/>
+      <c r="AA11" s="74"/>
+      <c r="AB11" s="74"/>
+      <c r="AC11" s="74"/>
     </row>
     <row r="12" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
@@ -2020,7 +2267,7 @@
         <v>0.4</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F12" s="55" t="s">
         <v>88</v>
@@ -2067,10 +2314,10 @@
         <v>0.4</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F13" s="55" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9" t="s">
@@ -2114,7 +2361,7 @@
         <v>0.4</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F14" s="55" t="s">
         <v>88</v>
@@ -32757,10 +33004,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0839C95-2436-4E60-B166-FE667F7FDF76}">
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32772,13 +33019,12 @@
     <col min="5" max="5" width="5.6640625" customWidth="1"/>
     <col min="6" max="6" width="6.44140625" customWidth="1"/>
     <col min="7" max="7" width="22.77734375" customWidth="1"/>
-    <col min="9" max="9" width="22.77734375" customWidth="1"/>
-    <col min="10" max="10" width="27.44140625" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.44140625" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="56"/>
       <c r="B1" s="59" t="s">
         <v>29</v>
@@ -32802,20 +33048,17 @@
         <v>35</v>
       </c>
       <c r="I1" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="62" t="s">
+      <c r="K1" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="K1" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="L1" s="62" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="79" t="s">
+    </row>
+    <row r="2" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="128" t="s">
         <v>48</v>
       </c>
       <c r="B2" s="57" t="s">
@@ -32825,7 +33068,7 @@
         <v>49</v>
       </c>
       <c r="D2" s="58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E2" s="57"/>
       <c r="F2" s="57"/>
@@ -32835,13 +33078,12 @@
       <c r="H2" s="57"/>
       <c r="I2" s="57"/>
       <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="64">
+      <c r="K2" s="142">
         <v>45441</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="77"/>
+    <row r="3" spans="1:11" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="126"/>
       <c r="B3" s="57" t="s">
         <v>71</v>
       </c>
@@ -32849,7 +33091,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E3" s="57"/>
       <c r="F3" s="57"/>
@@ -32859,12 +33101,11 @@
       <c r="H3" s="57"/>
       <c r="I3" s="57"/>
       <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="64">
+      <c r="K3" s="142">
         <v>45441</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="60"/>
       <c r="B4" s="57" t="s">
         <v>72</v>
@@ -32873,7 +33114,7 @@
         <v>51</v>
       </c>
       <c r="D4" s="58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E4" s="57"/>
       <c r="F4" s="57"/>
@@ -32883,13 +33124,12 @@
       <c r="H4" s="57"/>
       <c r="I4" s="57"/>
       <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="64">
+      <c r="K4" s="142">
         <v>45441</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="80" t="s">
+    <row r="5" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="129" t="s">
         <v>52</v>
       </c>
       <c r="B5" s="57" t="s">
@@ -32901,17 +33141,16 @@
       <c r="D5" s="58"/>
       <c r="E5" s="57"/>
       <c r="F5" s="58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G5" s="57"/>
       <c r="H5" s="57"/>
       <c r="I5" s="57"/>
       <c r="J5" s="57"/>
       <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-    </row>
-    <row r="6" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="77"/>
+    </row>
+    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="126"/>
       <c r="B6" s="57" t="s">
         <v>73</v>
       </c>
@@ -32921,16 +33160,15 @@
       <c r="D6" s="58"/>
       <c r="E6" s="57"/>
       <c r="F6" s="58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G6" s="57"/>
       <c r="H6" s="57"/>
       <c r="I6" s="57"/>
       <c r="J6" s="57"/>
       <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-    </row>
-    <row r="7" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="60"/>
       <c r="B7" s="57" t="s">
         <v>74</v>
@@ -32941,17 +33179,16 @@
       <c r="D7" s="58"/>
       <c r="E7" s="57"/>
       <c r="F7" s="58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G7" s="57"/>
       <c r="H7" s="57"/>
       <c r="I7" s="57"/>
       <c r="J7" s="57"/>
       <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-    </row>
-    <row r="8" spans="1:12" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="80" t="s">
+    </row>
+    <row r="8" spans="1:11" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="129" t="s">
         <v>56</v>
       </c>
       <c r="B8" s="57" t="s">
@@ -32960,39 +33197,51 @@
       <c r="C8" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="58" t="s">
+      <c r="D8" s="77" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="76" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="78"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="142">
+        <v>45442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="126"/>
+      <c r="B9" s="57" t="s">
         <v>94</v>
-      </c>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-    </row>
-    <row r="9" spans="1:12" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="77"/>
-      <c r="B9" s="57" t="s">
-        <v>95</v>
       </c>
       <c r="C9" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="58"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="58" t="s">
-        <v>94</v>
+      <c r="D9" s="77"/>
+      <c r="E9" s="80" t="s">
+        <v>36</v>
       </c>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-    </row>
-    <row r="10" spans="1:12" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="80"/>
+      <c r="G9" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="H9" s="87">
+        <v>1</v>
+      </c>
+      <c r="I9" s="66" t="s">
+        <v>128</v>
+      </c>
+      <c r="J9" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="K9" s="142">
+        <v>45442</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="60"/>
       <c r="B10" s="57" t="s">
         <v>77</v>
@@ -33000,39 +33249,51 @@
       <c r="C10" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="58"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="58" t="s">
-        <v>94</v>
+      <c r="D10" s="83" t="s">
+        <v>36</v>
       </c>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-    </row>
-    <row r="11" spans="1:12" ht="106.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="85"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="142">
+        <v>45442</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="106.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="60"/>
       <c r="B11" s="57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="58"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="58" t="s">
-        <v>94</v>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124" t="s">
+        <v>36</v>
       </c>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-    </row>
-    <row r="12" spans="1:12" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="124"/>
+      <c r="G11" s="124" t="s">
+        <v>125</v>
+      </c>
+      <c r="H11" s="124">
+        <v>2</v>
+      </c>
+      <c r="I11" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" s="142">
+        <v>45442</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="60"/>
       <c r="B12" s="57" t="s">
         <v>79</v>
@@ -33040,39 +33301,51 @@
       <c r="C12" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="58"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="58" t="s">
-        <v>94</v>
+      <c r="D12" s="86" t="s">
+        <v>36</v>
       </c>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-    </row>
-    <row r="13" spans="1:12" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="124"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="123" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="124"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="142">
+        <v>45442</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="60"/>
       <c r="B13" s="57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C13" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="58" t="s">
-        <v>94</v>
+      <c r="D13" s="124"/>
+      <c r="E13" s="124" t="s">
+        <v>36</v>
       </c>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-    </row>
-    <row r="14" spans="1:12" ht="144.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="124"/>
+      <c r="G13" s="124" t="s">
+        <v>125</v>
+      </c>
+      <c r="H13" s="124">
+        <v>3</v>
+      </c>
+      <c r="I13" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="K13" s="142">
+        <v>45442</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="144.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="60"/>
       <c r="B14" s="57" t="s">
         <v>78</v>
@@ -33080,19 +33353,22 @@
       <c r="C14" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="58"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="58" t="s">
-        <v>94</v>
+      <c r="D14" s="124" t="s">
+        <v>36</v>
       </c>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-    </row>
-    <row r="15" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="124"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="123" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="124"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="142">
+        <v>45442</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="60"/>
       <c r="B15" s="57" t="s">
         <v>58</v>
@@ -33100,20 +33376,23 @@
       <c r="C15" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="58" t="s">
-        <v>94</v>
+      <c r="D15" s="124" t="s">
+        <v>36</v>
       </c>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-    </row>
-    <row r="16" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="80" t="s">
+      <c r="E15" s="124"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="123" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="124"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="142">
+        <v>45442</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="129" t="s">
         <v>59</v>
       </c>
       <c r="B16" s="57" t="s">
@@ -33125,17 +33404,16 @@
       <c r="D16" s="58"/>
       <c r="E16" s="57"/>
       <c r="F16" s="58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G16" s="57"/>
       <c r="H16" s="57"/>
       <c r="I16" s="57"/>
       <c r="J16" s="57"/>
       <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-    </row>
-    <row r="17" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="77"/>
+    </row>
+    <row r="17" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="126"/>
       <c r="B17" s="57" t="s">
         <v>60</v>
       </c>
@@ -33145,16 +33423,15 @@
       <c r="D17" s="58"/>
       <c r="E17" s="57"/>
       <c r="F17" s="58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G17" s="57"/>
       <c r="H17" s="57"/>
       <c r="I17" s="57"/>
       <c r="J17" s="57"/>
       <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-    </row>
-    <row r="18" spans="1:12" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:11" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="60"/>
       <c r="B18" s="57" t="s">
         <v>76</v>
@@ -33165,16 +33442,15 @@
       <c r="D18" s="57"/>
       <c r="E18" s="57"/>
       <c r="F18" s="58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G18" s="57"/>
       <c r="H18" s="57"/>
       <c r="I18" s="57"/>
       <c r="J18" s="57"/>
       <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-    </row>
-    <row r="19" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="60"/>
       <c r="B19" s="57" t="s">
         <v>85</v>
@@ -33185,19 +33461,18 @@
       <c r="D19" s="57"/>
       <c r="E19" s="57"/>
       <c r="F19" s="58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G19" s="57"/>
       <c r="H19" s="57"/>
       <c r="I19" s="57"/>
       <c r="J19" s="57"/>
       <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-    </row>
-    <row r="20" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="60"/>
       <c r="B20" s="57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C20" s="57" t="s">
         <v>63</v>
@@ -33205,16 +33480,15 @@
       <c r="D20" s="58"/>
       <c r="E20" s="57"/>
       <c r="F20" s="58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G20" s="57"/>
       <c r="H20" s="57"/>
       <c r="I20" s="57"/>
       <c r="J20" s="57"/>
       <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="60"/>
       <c r="B21" s="57"/>
       <c r="C21" s="57"/>
@@ -33226,9 +33500,8 @@
       <c r="I21" s="57"/>
       <c r="J21" s="57"/>
       <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="60"/>
       <c r="B22" s="57" t="s">
         <v>37</v>
@@ -33242,9 +33515,8 @@
       <c r="I22" s="57"/>
       <c r="J22" s="57"/>
       <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="60"/>
       <c r="B23" s="57" t="s">
         <v>64</v>
@@ -33260,9 +33532,8 @@
       <c r="I23" s="57"/>
       <c r="J23" s="57"/>
       <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="60"/>
       <c r="B24" s="57" t="s">
         <v>65</v>
@@ -33278,9 +33549,8 @@
       <c r="I24" s="57"/>
       <c r="J24" s="57"/>
       <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="60"/>
       <c r="B25" s="57" t="s">
         <v>66</v>
@@ -33296,13 +33566,12 @@
       <c r="I25" s="57"/>
       <c r="J25" s="57"/>
       <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="60"/>
       <c r="B26" s="57"/>
       <c r="C26" s="57" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D26" s="58"/>
       <c r="E26" s="57"/>
@@ -33312,12 +33581,11 @@
       <c r="I26" s="57"/>
       <c r="J26" s="57"/>
       <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="60"/>
       <c r="B27" s="57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C27" s="57"/>
       <c r="D27" s="58"/>
@@ -33328,9 +33596,8 @@
       <c r="I27" s="57"/>
       <c r="J27" s="57"/>
       <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="61"/>
       <c r="B28" s="57"/>
       <c r="C28" s="57"/>
@@ -33342,10 +33609,9 @@
       <c r="I28" s="57"/>
       <c r="J28" s="57"/>
       <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-    </row>
-    <row r="29" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="78" t="s">
+    </row>
+    <row r="29" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="127" t="s">
         <v>87</v>
       </c>
       <c r="B29" s="57" t="s">
@@ -33357,17 +33623,16 @@
       <c r="D29" s="58"/>
       <c r="E29" s="57"/>
       <c r="F29" s="58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G29" s="57"/>
       <c r="H29" s="57"/>
       <c r="I29" s="57"/>
       <c r="J29" s="57"/>
       <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-    </row>
-    <row r="30" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="77"/>
+    </row>
+    <row r="30" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="126"/>
       <c r="B30" s="57" t="s">
         <v>60</v>
       </c>
@@ -33377,16 +33642,15 @@
       <c r="D30" s="58"/>
       <c r="E30" s="57"/>
       <c r="F30" s="58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G30" s="57"/>
       <c r="H30" s="57"/>
       <c r="I30" s="57"/>
       <c r="J30" s="57"/>
       <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-    </row>
-    <row r="31" spans="1:12" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:11" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="60"/>
       <c r="B31" s="57" t="s">
         <v>77</v>
@@ -33397,16 +33661,15 @@
       <c r="D31" s="57"/>
       <c r="E31" s="57"/>
       <c r="F31" s="58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G31" s="57"/>
       <c r="H31" s="57"/>
       <c r="I31" s="57"/>
       <c r="J31" s="57"/>
       <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-    </row>
-    <row r="32" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="60"/>
       <c r="B32" s="57" t="s">
         <v>85</v>
@@ -33417,19 +33680,18 @@
       <c r="D32" s="57"/>
       <c r="E32" s="57"/>
       <c r="F32" s="58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G32" s="57"/>
       <c r="H32" s="57"/>
       <c r="I32" s="57"/>
       <c r="J32" s="57"/>
       <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
-    </row>
-    <row r="33" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="60"/>
       <c r="B33" s="57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C33" s="57" t="s">
         <v>63</v>
@@ -33437,16 +33699,15 @@
       <c r="D33" s="58"/>
       <c r="E33" s="57"/>
       <c r="F33" s="58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G33" s="57"/>
       <c r="H33" s="57"/>
       <c r="I33" s="57"/>
       <c r="J33" s="57"/>
       <c r="K33" s="57"/>
-      <c r="L33" s="57"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="60"/>
       <c r="B34" s="57"/>
       <c r="C34" s="57"/>
@@ -33458,9 +33719,8 @@
       <c r="I34" s="57"/>
       <c r="J34" s="57"/>
       <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="60"/>
       <c r="B35" s="57" t="s">
         <v>37</v>
@@ -33474,9 +33734,8 @@
       <c r="I35" s="57"/>
       <c r="J35" s="57"/>
       <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="60"/>
       <c r="B36" s="57" t="s">
         <v>64</v>
@@ -33492,9 +33751,8 @@
       <c r="I36" s="57"/>
       <c r="J36" s="57"/>
       <c r="K36" s="57"/>
-      <c r="L36" s="57"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="60"/>
       <c r="B37" s="57" t="s">
         <v>65</v>
@@ -33510,12 +33768,11 @@
       <c r="I37" s="57"/>
       <c r="J37" s="57"/>
       <c r="K37" s="57"/>
-      <c r="L37" s="57"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="60"/>
       <c r="B38" s="57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C38" s="57">
         <v>2</v>
@@ -33528,12 +33785,11 @@
       <c r="I38" s="57"/>
       <c r="J38" s="57"/>
       <c r="K38" s="57"/>
-      <c r="L38" s="57"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="60"/>
       <c r="B39" s="57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C39" s="57"/>
       <c r="D39" s="58"/>
@@ -33544,9 +33800,8 @@
       <c r="I39" s="57"/>
       <c r="J39" s="57"/>
       <c r="K39" s="57"/>
-      <c r="L39" s="57"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="60"/>
       <c r="B40" s="57"/>
       <c r="C40" s="57"/>
@@ -33558,9 +33813,8 @@
       <c r="I40" s="57"/>
       <c r="J40" s="57"/>
       <c r="K40" s="57"/>
-      <c r="L40" s="57"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="61"/>
       <c r="B41" s="57"/>
       <c r="C41" s="57"/>
@@ -33572,11 +33826,10 @@
       <c r="I41" s="57"/>
       <c r="J41" s="57"/>
       <c r="K41" s="57"/>
-      <c r="L41" s="57"/>
-    </row>
-    <row r="42" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="76" t="s">
-        <v>112</v>
+    </row>
+    <row r="42" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="125" t="s">
+        <v>111</v>
       </c>
       <c r="B42" s="57" t="s">
         <v>84</v>
@@ -33587,19 +33840,18 @@
       <c r="D42" s="58"/>
       <c r="E42" s="57"/>
       <c r="F42" s="58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G42" s="57"/>
       <c r="H42" s="57"/>
       <c r="I42" s="57"/>
       <c r="J42" s="57"/>
       <c r="K42" s="57"/>
-      <c r="L42" s="57"/>
-    </row>
-    <row r="43" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="77"/>
+    </row>
+    <row r="43" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="126"/>
       <c r="B43" s="57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C43" s="57" t="s">
         <v>61</v>
@@ -33607,96 +33859,91 @@
       <c r="D43" s="58"/>
       <c r="E43" s="57"/>
       <c r="F43" s="58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G43" s="57"/>
       <c r="H43" s="57"/>
       <c r="I43" s="57"/>
       <c r="J43" s="57"/>
       <c r="K43" s="57"/>
-      <c r="L43" s="57"/>
-    </row>
-    <row r="44" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="60"/>
       <c r="B44" s="57" t="s">
         <v>78</v>
       </c>
       <c r="C44" s="57" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D44" s="57"/>
       <c r="E44" s="57"/>
       <c r="F44" s="58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G44" s="57"/>
       <c r="H44" s="57"/>
       <c r="I44" s="57"/>
       <c r="J44" s="57"/>
       <c r="K44" s="57"/>
-      <c r="L44" s="57"/>
-    </row>
-    <row r="45" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="60"/>
       <c r="B45" s="57" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C45" s="57" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D45" s="57"/>
       <c r="E45" s="57"/>
       <c r="F45" s="58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G45" s="57"/>
       <c r="H45" s="57"/>
       <c r="I45" s="57"/>
       <c r="J45" s="57"/>
       <c r="K45" s="57"/>
-      <c r="L45" s="57"/>
-    </row>
-    <row r="46" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A46" s="60"/>
       <c r="B46" s="57" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C46" s="57" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D46" s="57"/>
       <c r="E46" s="57"/>
       <c r="F46" s="58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G46" s="57"/>
       <c r="H46" s="57"/>
       <c r="I46" s="57"/>
       <c r="J46" s="57"/>
       <c r="K46" s="57"/>
-      <c r="L46" s="57"/>
-    </row>
-    <row r="47" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A47" s="60"/>
       <c r="B47" s="57" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C47" s="57" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D47" s="57"/>
       <c r="E47" s="57"/>
       <c r="F47" s="58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G47" s="57"/>
       <c r="H47" s="57"/>
       <c r="I47" s="57"/>
       <c r="J47" s="57"/>
       <c r="K47" s="57"/>
-      <c r="L47" s="57"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="60"/>
       <c r="B48" s="57"/>
       <c r="C48" s="57"/>
@@ -33708,9 +33955,8 @@
       <c r="I48" s="57"/>
       <c r="J48" s="57"/>
       <c r="K48" s="57"/>
-      <c r="L48" s="57"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="60"/>
       <c r="B49" s="57" t="s">
         <v>37</v>
@@ -33724,15 +33970,14 @@
       <c r="I49" s="57"/>
       <c r="J49" s="57"/>
       <c r="K49" s="57"/>
-      <c r="L49" s="57"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="60"/>
       <c r="B50" s="57" t="s">
         <v>64</v>
       </c>
       <c r="C50" s="57" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D50" s="58"/>
       <c r="E50" s="57"/>
@@ -33742,9 +33987,8 @@
       <c r="I50" s="57"/>
       <c r="J50" s="57"/>
       <c r="K50" s="57"/>
-      <c r="L50" s="57"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="60"/>
       <c r="B51" s="57" t="s">
         <v>65</v>
@@ -33760,9 +34004,8 @@
       <c r="I51" s="57"/>
       <c r="J51" s="57"/>
       <c r="K51" s="57"/>
-      <c r="L51" s="57"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="60"/>
       <c r="B52" s="57"/>
       <c r="C52" s="57"/>
@@ -33774,9 +34017,8 @@
       <c r="I52" s="57"/>
       <c r="J52" s="57"/>
       <c r="K52" s="57"/>
-      <c r="L52" s="57"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="60"/>
       <c r="B53" s="57"/>
       <c r="C53" s="57"/>
@@ -33788,9 +34030,8 @@
       <c r="I53" s="57"/>
       <c r="J53" s="57"/>
       <c r="K53" s="57"/>
-      <c r="L53" s="57"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="60"/>
       <c r="B54" s="57"/>
       <c r="C54" s="57"/>
@@ -33802,9 +34043,8 @@
       <c r="I54" s="57"/>
       <c r="J54" s="57"/>
       <c r="K54" s="57"/>
-      <c r="L54" s="57"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="61"/>
       <c r="B55" s="57"/>
       <c r="C55" s="57"/>
@@ -33816,7 +34056,6 @@
       <c r="I55" s="57"/>
       <c r="J55" s="57"/>
       <c r="K55" s="57"/>
-      <c r="L55" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -33856,7 +34095,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D1" s="19"/>
       <c r="E1" s="20"/>
@@ -33865,16 +34104,16 @@
       </c>
       <c r="G1" s="21" t="str">
         <f ca="1">RIGHT(CELL("имяфайла",K1),LEN(CELL("имяфайла",K1))-SEARCH("]",CELL("имяфайла",K1)))</f>
-        <v>Тест-кейс 1</v>
+        <v>Тест-кейс 1 Денисов</v>
       </c>
       <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="81"/>
-      <c r="B2" s="83" t="s">
+      <c r="A2" s="130"/>
+      <c r="B2" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="134" t="s">
         <v>48</v>
       </c>
       <c r="D2" s="23"/>
@@ -33883,14 +34122,14 @@
         <v>18</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="82"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="86"/>
+      <c r="A3" s="131"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="135"/>
       <c r="D3" s="23"/>
       <c r="E3" s="24"/>
       <c r="F3" s="25" t="s">
@@ -33904,8 +34143,8 @@
       <c r="B4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="73" t="s">
-        <v>101</v>
+      <c r="C4" s="72" t="s">
+        <v>100</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="20"/>
@@ -33953,10 +34192,10 @@
     <row r="8" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="31"/>
       <c r="B8" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D8" s="33"/>
       <c r="H8" s="32"/>
@@ -33964,7 +34203,7 @@
     <row r="9" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="31"/>
       <c r="B9" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="38">
         <v>123</v>
@@ -34040,124 +34279,124 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="66">
+      <c r="A13" s="65">
         <v>1</v>
       </c>
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="68" t="s">
+      <c r="D13" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="67" t="s">
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="69"/>
+      <c r="H13" s="68"/>
     </row>
     <row r="14" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="70">
+      <c r="A14" s="69">
         <f t="shared" ref="A14:A15" si="1">A13 + 1</f>
         <v>2</v>
       </c>
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="67" t="s">
+      <c r="C14" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="68" t="s">
+      <c r="D14" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="67" t="s">
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="72"/>
+      <c r="H14" s="71"/>
     </row>
     <row r="15" spans="1:8" ht="69" x14ac:dyDescent="0.3">
-      <c r="A15" s="70">
+      <c r="A15" s="69">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="68" t="s">
+      <c r="D15" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="67" t="s">
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="72"/>
+      <c r="H15" s="71"/>
     </row>
     <row r="17" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B17" s="37"/>
-      <c r="C17" s="65"/>
+      <c r="C17" s="64"/>
     </row>
     <row r="18" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C18" s="65"/>
+      <c r="C18" s="64"/>
     </row>
     <row r="19" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C19" s="65"/>
+      <c r="C19" s="64"/>
     </row>
     <row r="20" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C20" s="65"/>
+      <c r="C20" s="64"/>
     </row>
     <row r="21" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C21" s="65"/>
+      <c r="C21" s="64"/>
     </row>
     <row r="22" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="65"/>
+      <c r="C22" s="64"/>
     </row>
     <row r="23" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="65"/>
+      <c r="C23" s="64"/>
     </row>
     <row r="24" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="65"/>
+      <c r="C24" s="64"/>
     </row>
     <row r="25" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="65"/>
+      <c r="C25" s="64"/>
     </row>
     <row r="26" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="65"/>
+      <c r="C26" s="64"/>
     </row>
     <row r="27" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="65"/>
+      <c r="C27" s="64"/>
     </row>
     <row r="28" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="65"/>
+      <c r="C28" s="64"/>
     </row>
     <row r="29" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="65"/>
+      <c r="C29" s="64"/>
     </row>
     <row r="30" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="65"/>
+      <c r="C30" s="64"/>
     </row>
     <row r="31" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="65"/>
+      <c r="C31" s="64"/>
     </row>
     <row r="32" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="65"/>
+      <c r="C32" s="64"/>
     </row>
     <row r="33" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="65"/>
+      <c r="C33" s="64"/>
     </row>
     <row r="34" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="65"/>
+      <c r="C34" s="64"/>
     </row>
     <row r="35" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="65"/>
+      <c r="C35" s="64"/>
     </row>
     <row r="36" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -35134,4 +35373,393 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4339E88-5DC7-4D49-BDA9-CCD5CAC76112}">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="23.88671875" customWidth="1"/>
+    <col min="3" max="3" width="34.109375" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.77734375" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" customWidth="1"/>
+    <col min="7" max="7" width="28.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="88"/>
+      <c r="B1" s="89" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="90" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="91"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="93" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1" s="94"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="136"/>
+      <c r="B2" s="138" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="140" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="97" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="98" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="99"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="137"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="97" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="100" t="s">
+        <v>123</v>
+      </c>
+      <c r="H3" s="99"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="101"/>
+      <c r="B4" s="89" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="81" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="91"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="89" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="102">
+        <v>45442</v>
+      </c>
+      <c r="H4" s="94"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="103"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="101"/>
+      <c r="B6" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="106"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="106"/>
+    </row>
+    <row r="7" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="103"/>
+      <c r="B7" s="109" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="109" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="110"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="104"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="103"/>
+      <c r="B8" s="104" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="104" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="105"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="104"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="103"/>
+      <c r="B9" s="104" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="110">
+        <v>123</v>
+      </c>
+      <c r="D9" s="105"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="104"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="103"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="112">
+        <v>8</v>
+      </c>
+      <c r="B11" s="113" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="114" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="115">
+        <v>5</v>
+      </c>
+      <c r="E11" s="115">
+        <v>3</v>
+      </c>
+      <c r="F11" s="115">
+        <v>0</v>
+      </c>
+      <c r="G11" s="116" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="118" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="119" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="119" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="120" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="120" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="120" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="121" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="122" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="79.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="75">
+        <v>1</v>
+      </c>
+      <c r="B13" s="76" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="76" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="77" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="76" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="78"/>
+    </row>
+    <row r="14" spans="1:8" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="79">
+        <v>2</v>
+      </c>
+      <c r="B14" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="77"/>
+      <c r="E14" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="80"/>
+      <c r="G14" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="H14" s="87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="79">
+        <v>3</v>
+      </c>
+      <c r="B15" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="83" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="85"/>
+    </row>
+    <row r="16" spans="1:8" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="111">
+        <v>4</v>
+      </c>
+      <c r="B16" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="123" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="124"/>
+      <c r="G16" s="124" t="s">
+        <v>125</v>
+      </c>
+      <c r="H16" s="124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="111">
+        <v>5</v>
+      </c>
+      <c r="B17" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="123" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="86" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="124"/>
+      <c r="F17" s="124"/>
+      <c r="G17" s="123" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="124"/>
+    </row>
+    <row r="18" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="82">
+        <v>6</v>
+      </c>
+      <c r="B18" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="123" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="124"/>
+      <c r="E18" s="124" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="124"/>
+      <c r="G18" s="124" t="s">
+        <v>125</v>
+      </c>
+      <c r="H18" s="124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="120.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="82">
+        <v>7</v>
+      </c>
+      <c r="B19" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="123" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="124" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="124"/>
+      <c r="F19" s="124"/>
+      <c r="G19" s="123" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" s="124"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="82">
+        <v>8</v>
+      </c>
+      <c r="B20" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="123" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="124" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="124"/>
+      <c r="F20" s="124"/>
+      <c r="G20" s="123" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" s="124"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Стратегия тестирования.xlsx
+++ b/Стратегия тестирования.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD762FE-9511-4210-B7B0-2C1774913FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9066625-2EAE-46EC-AFF5-ABC84BC3B00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,13 +17,14 @@
     <sheet name="Чек-лист" sheetId="7" r:id="rId2"/>
     <sheet name="Тест-кейс 1 Денисов" sheetId="3" r:id="rId3"/>
     <sheet name="Тест-кейс 2 Степанов" sheetId="8" r:id="rId4"/>
+    <sheet name="Тест-кейс 3 Мартьянов" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="135">
   <si>
     <t>Цели доработки</t>
   </si>
@@ -376,9 +377,6 @@
     <t>result</t>
   </si>
   <si>
-    <t>1 0 2 4 0 1 1 2 3</t>
-  </si>
-  <si>
     <t>none</t>
   </si>
   <si>
@@ -444,6 +442,18 @@
   <si>
     <t>High</t>
   </si>
+  <si>
+    <t>Проверка правильности нахождения кратчайшего пути в графе</t>
+  </si>
+  <si>
+    <t>Тест-кейс 3</t>
+  </si>
+  <si>
+    <t>Мартьянов Денис</t>
+  </si>
+  <si>
+    <t>Смольков, Мартьяннов</t>
+  </si>
 </sst>
 </file>
 
@@ -452,11 +462,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-mmm\-yyyy"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -628,6 +646,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -1155,27 +1181,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1184,345 +1215,456 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="36" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="16" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="16" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="19" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="19" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="15" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="15" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="24" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="24" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="25" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="26" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="25" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="26" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="26" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="26" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="24" fillId="4" borderId="28" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="25" fillId="4" borderId="28" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="26" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="26" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="26" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="26" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="35" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="35" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="17" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="18" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="36" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="18" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="16" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="19" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="15" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="24" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="25" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="26" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="26" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="4" borderId="28" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="26" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="26" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="12">
     <cellStyle name="60% — акцент3" xfId="2" builtinId="40"/>
     <cellStyle name="60% — акцент3 2" xfId="5" xr:uid="{DD38E02B-D06E-4299-9B25-B0CED69E740F}"/>
+    <cellStyle name="60% — акцент3 2 2" xfId="11" xr:uid="{62778AD9-8E31-4342-ACDE-A9DBF81083F8}"/>
+    <cellStyle name="60% — акцент3 3" xfId="9" xr:uid="{D41AD0A7-6B67-44EC-BA4D-3B6C26BA0235}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{BDCE208E-A001-445B-B95C-1F68C52A99BB}"/>
     <cellStyle name="Обычный 2 2" xfId="4" xr:uid="{3F14EB2C-9432-4844-A7E1-1D943D04C067}"/>
+    <cellStyle name="Обычный 2 2 2" xfId="10" xr:uid="{18EEAAB2-4DA8-48B4-A309-FFB7214B4260}"/>
+    <cellStyle name="Обычный 2 3" xfId="8" xr:uid="{797A7B6C-F543-446A-A20F-82746A78A139}"/>
     <cellStyle name="Обычный 3" xfId="3" xr:uid="{FF0643F8-AD5B-49CB-8D90-D6EDA969D924}"/>
     <cellStyle name="Обычный 4" xfId="6" xr:uid="{3B7BBB30-AAE7-48A5-B0DB-EBF74D43467D}"/>
+    <cellStyle name="Обычный 5" xfId="7" xr:uid="{3F45BC02-D0F4-4BA2-9110-8756DDA6E445}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1837,7 +1979,7 @@
   <dimension ref="A1:AC1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2173,7 +2315,7 @@
         <v>0.4</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F10" s="55" t="s">
         <v>106</v>
@@ -2220,7 +2362,7 @@
         <v>0.4</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F11" s="73" t="s">
         <v>88</v>
@@ -2230,7 +2372,7 @@
         <v>40</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="74"/>
@@ -2267,7 +2409,7 @@
         <v>0.4</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F12" s="55" t="s">
         <v>88</v>
@@ -2277,7 +2419,7 @@
         <v>69</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="1"/>
@@ -2314,10 +2456,10 @@
         <v>0.4</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F13" s="55" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9" t="s">
@@ -2352,7 +2494,7 @@
         <v>44</v>
       </c>
       <c r="B14" s="50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="52" t="s">
         <v>47</v>
@@ -2361,7 +2503,7 @@
         <v>0.4</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F14" s="55" t="s">
         <v>88</v>
@@ -33006,8 +33148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0839C95-2436-4E60-B166-FE667F7FDF76}">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33058,7 +33200,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="129" t="s">
         <v>48</v>
       </c>
       <c r="B2" s="57" t="s">
@@ -33078,12 +33220,12 @@
       <c r="H2" s="57"/>
       <c r="I2" s="57"/>
       <c r="J2" s="57"/>
-      <c r="K2" s="142">
+      <c r="K2" s="125">
         <v>45441</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="126"/>
+      <c r="A3" s="127"/>
       <c r="B3" s="57" t="s">
         <v>71</v>
       </c>
@@ -33101,7 +33243,7 @@
       <c r="H3" s="57"/>
       <c r="I3" s="57"/>
       <c r="J3" s="57"/>
-      <c r="K3" s="142">
+      <c r="K3" s="125">
         <v>45441</v>
       </c>
     </row>
@@ -33124,12 +33266,12 @@
       <c r="H4" s="57"/>
       <c r="I4" s="57"/>
       <c r="J4" s="57"/>
-      <c r="K4" s="142">
+      <c r="K4" s="125">
         <v>45441</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="129" t="s">
+      <c r="A5" s="130" t="s">
         <v>52</v>
       </c>
       <c r="B5" s="57" t="s">
@@ -33150,7 +33292,7 @@
       <c r="K5" s="57"/>
     </row>
     <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="126"/>
+      <c r="A6" s="127"/>
       <c r="B6" s="57" t="s">
         <v>73</v>
       </c>
@@ -33168,7 +33310,7 @@
       <c r="J6" s="57"/>
       <c r="K6" s="57"/>
     </row>
-    <row r="7" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="60"/>
       <c r="B7" s="57" t="s">
         <v>74</v>
@@ -33188,7 +33330,7 @@
       <c r="K7" s="57"/>
     </row>
     <row r="8" spans="1:11" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="129" t="s">
+      <c r="A8" s="130" t="s">
         <v>56</v>
       </c>
       <c r="B8" s="57" t="s">
@@ -33208,12 +33350,12 @@
       <c r="H8" s="78"/>
       <c r="I8" s="66"/>
       <c r="J8" s="66"/>
-      <c r="K8" s="142">
+      <c r="K8" s="125">
         <v>45442</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="126"/>
+      <c r="A9" s="127"/>
       <c r="B9" s="57" t="s">
         <v>94</v>
       </c>
@@ -33226,18 +33368,18 @@
       </c>
       <c r="F9" s="80"/>
       <c r="G9" s="76" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H9" s="87">
         <v>1</v>
       </c>
       <c r="I9" s="66" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J9" s="66" t="s">
-        <v>131</v>
-      </c>
-      <c r="K9" s="142">
+        <v>130</v>
+      </c>
+      <c r="K9" s="125">
         <v>45442</v>
       </c>
     </row>
@@ -33260,7 +33402,7 @@
       <c r="H10" s="85"/>
       <c r="I10" s="66"/>
       <c r="J10" s="66"/>
-      <c r="K10" s="142">
+      <c r="K10" s="125">
         <v>45442</v>
       </c>
     </row>
@@ -33278,18 +33420,18 @@
       </c>
       <c r="F11" s="124"/>
       <c r="G11" s="124" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H11" s="124">
         <v>2</v>
       </c>
       <c r="I11" s="66" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J11" s="66" t="s">
-        <v>131</v>
-      </c>
-      <c r="K11" s="142">
+        <v>130</v>
+      </c>
+      <c r="K11" s="125">
         <v>45442</v>
       </c>
     </row>
@@ -33312,7 +33454,7 @@
       <c r="H12" s="124"/>
       <c r="I12" s="66"/>
       <c r="J12" s="66"/>
-      <c r="K12" s="142">
+      <c r="K12" s="125">
         <v>45442</v>
       </c>
     </row>
@@ -33330,18 +33472,18 @@
       </c>
       <c r="F13" s="124"/>
       <c r="G13" s="124" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H13" s="124">
         <v>3</v>
       </c>
       <c r="I13" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="J13" s="66" t="s">
         <v>130</v>
       </c>
-      <c r="J13" s="66" t="s">
-        <v>131</v>
-      </c>
-      <c r="K13" s="142">
+      <c r="K13" s="125">
         <v>45442</v>
       </c>
     </row>
@@ -33364,7 +33506,7 @@
       <c r="H14" s="124"/>
       <c r="I14" s="66"/>
       <c r="J14" s="66"/>
-      <c r="K14" s="142">
+      <c r="K14" s="125">
         <v>45442</v>
       </c>
     </row>
@@ -33387,12 +33529,12 @@
       <c r="H15" s="124"/>
       <c r="I15" s="66"/>
       <c r="J15" s="66"/>
-      <c r="K15" s="142">
+      <c r="K15" s="125">
         <v>45442</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="129" t="s">
+      <c r="A16" s="130" t="s">
         <v>59</v>
       </c>
       <c r="B16" s="57" t="s">
@@ -33401,35 +33543,43 @@
       <c r="C16" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="58"/>
+      <c r="D16" s="58" t="s">
+        <v>93</v>
+      </c>
       <c r="E16" s="57"/>
-      <c r="F16" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="G16" s="57"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="57" t="s">
+        <v>53</v>
+      </c>
       <c r="H16" s="57"/>
       <c r="I16" s="57"/>
       <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
+      <c r="K16" s="186">
+        <v>45446</v>
+      </c>
     </row>
     <row r="17" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="126"/>
+      <c r="A17" s="127"/>
       <c r="B17" s="57" t="s">
         <v>60</v>
       </c>
       <c r="C17" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="58"/>
+      <c r="D17" s="58" t="s">
+        <v>93</v>
+      </c>
       <c r="E17" s="57"/>
-      <c r="F17" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="G17" s="57"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="57" t="s">
+        <v>61</v>
+      </c>
       <c r="H17" s="57"/>
       <c r="I17" s="57"/>
       <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
+      <c r="K17" s="186">
+        <v>45446</v>
+      </c>
     </row>
     <row r="18" spans="1:11" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="60"/>
@@ -33439,16 +33589,20 @@
       <c r="C18" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="57"/>
+      <c r="D18" s="58" t="s">
+        <v>93</v>
+      </c>
       <c r="E18" s="57"/>
-      <c r="F18" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="G18" s="57"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="57" t="s">
+        <v>82</v>
+      </c>
       <c r="H18" s="57"/>
       <c r="I18" s="57"/>
       <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
+      <c r="K18" s="186">
+        <v>45446</v>
+      </c>
     </row>
     <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="60"/>
@@ -33458,16 +33612,20 @@
       <c r="C19" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="57"/>
+      <c r="D19" s="58" t="s">
+        <v>93</v>
+      </c>
       <c r="E19" s="57"/>
-      <c r="F19" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="G19" s="57"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="57" t="s">
+        <v>62</v>
+      </c>
       <c r="H19" s="57"/>
       <c r="I19" s="57"/>
       <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
+      <c r="K19" s="186">
+        <v>45446</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="60"/>
@@ -33477,16 +33635,20 @@
       <c r="C20" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="58"/>
+      <c r="D20" s="58" t="s">
+        <v>93</v>
+      </c>
       <c r="E20" s="57"/>
-      <c r="F20" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="G20" s="57"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="57" t="s">
+        <v>63</v>
+      </c>
       <c r="H20" s="57"/>
       <c r="I20" s="57"/>
       <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
+      <c r="K20" s="186">
+        <v>45446</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="60"/>
@@ -33521,9 +33683,7 @@
       <c r="B23" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="57" t="s">
-        <v>86</v>
-      </c>
+      <c r="C23" s="57"/>
       <c r="D23" s="58"/>
       <c r="E23" s="57"/>
       <c r="F23" s="57"/>
@@ -33538,9 +33698,7 @@
       <c r="B24" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="57">
-        <v>12345</v>
-      </c>
+      <c r="C24" s="57"/>
       <c r="D24" s="58"/>
       <c r="E24" s="57"/>
       <c r="F24" s="57"/>
@@ -33555,9 +33713,7 @@
       <c r="B25" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="57">
-        <v>3</v>
-      </c>
+      <c r="C25" s="57"/>
       <c r="D25" s="57"/>
       <c r="E25" s="57"/>
       <c r="F25" s="57"/>
@@ -33570,9 +33726,7 @@
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="60"/>
       <c r="B26" s="57"/>
-      <c r="C26" s="57" t="s">
-        <v>109</v>
-      </c>
+      <c r="C26" s="57"/>
       <c r="D26" s="58"/>
       <c r="E26" s="57"/>
       <c r="F26" s="57"/>
@@ -33611,7 +33765,7 @@
       <c r="K28" s="57"/>
     </row>
     <row r="29" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="127" t="s">
+      <c r="A29" s="128" t="s">
         <v>87</v>
       </c>
       <c r="B29" s="57" t="s">
@@ -33632,7 +33786,7 @@
       <c r="K29" s="57"/>
     </row>
     <row r="30" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="126"/>
+      <c r="A30" s="127"/>
       <c r="B30" s="57" t="s">
         <v>60</v>
       </c>
@@ -33828,8 +33982,8 @@
       <c r="K41" s="57"/>
     </row>
     <row r="42" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="125" t="s">
-        <v>111</v>
+      <c r="A42" s="126" t="s">
+        <v>110</v>
       </c>
       <c r="B42" s="57" t="s">
         <v>84</v>
@@ -33849,9 +34003,9 @@
       <c r="K42" s="57"/>
     </row>
     <row r="43" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="126"/>
+      <c r="A43" s="127"/>
       <c r="B43" s="57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C43" s="57" t="s">
         <v>61</v>
@@ -33873,7 +34027,7 @@
         <v>78</v>
       </c>
       <c r="C44" s="57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D44" s="57"/>
       <c r="E44" s="57"/>
@@ -33889,10 +34043,10 @@
     <row r="45" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="60"/>
       <c r="B45" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" s="57" t="s">
         <v>114</v>
-      </c>
-      <c r="C45" s="57" t="s">
-        <v>115</v>
       </c>
       <c r="D45" s="57"/>
       <c r="E45" s="57"/>
@@ -33908,10 +34062,10 @@
     <row r="46" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A46" s="60"/>
       <c r="B46" s="57" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C46" s="57" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D46" s="57"/>
       <c r="E46" s="57"/>
@@ -33927,10 +34081,10 @@
     <row r="47" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A47" s="60"/>
       <c r="B47" s="57" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C47" s="57" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D47" s="57"/>
       <c r="E47" s="57"/>
@@ -33977,7 +34131,7 @@
         <v>64</v>
       </c>
       <c r="C50" s="57" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D50" s="58"/>
       <c r="E50" s="57"/>
@@ -34109,11 +34263,11 @@
       <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="130"/>
-      <c r="B2" s="132" t="s">
+      <c r="A2" s="131"/>
+      <c r="B2" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="134" t="s">
+      <c r="C2" s="135" t="s">
         <v>48</v>
       </c>
       <c r="D2" s="23"/>
@@ -34127,9 +34281,9 @@
       <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="131"/>
-      <c r="B3" s="133"/>
-      <c r="C3" s="135"/>
+      <c r="A3" s="132"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="136"/>
       <c r="D3" s="23"/>
       <c r="E3" s="24"/>
       <c r="F3" s="25" t="s">
@@ -35400,7 +35554,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="90" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D1" s="91"/>
       <c r="E1" s="92"/>
@@ -35408,17 +35562,17 @@
         <v>16</v>
       </c>
       <c r="G1" s="93" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" s="94"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="137"/>
+      <c r="B2" s="139" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="141" t="s">
         <v>121</v>
-      </c>
-      <c r="H1" s="94"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="136"/>
-      <c r="B2" s="138" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="140" t="s">
-        <v>122</v>
       </c>
       <c r="D2" s="95"/>
       <c r="E2" s="96"/>
@@ -35431,16 +35585,16 @@
       <c r="H2" s="99"/>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="137"/>
-      <c r="B3" s="139"/>
-      <c r="C3" s="141"/>
+      <c r="A3" s="138"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="142"/>
       <c r="D3" s="95"/>
       <c r="E3" s="96"/>
       <c r="F3" s="97" t="s">
         <v>19</v>
       </c>
       <c r="G3" s="100" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H3" s="99"/>
     </row>
@@ -35450,7 +35604,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="81" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D4" s="91"/>
       <c r="E4" s="92"/>
@@ -35624,7 +35778,7 @@
       </c>
       <c r="F14" s="80"/>
       <c r="G14" s="76" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H14" s="87">
         <v>1</v>
@@ -35666,7 +35820,7 @@
       </c>
       <c r="F16" s="124"/>
       <c r="G16" s="124" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H16" s="124">
         <v>2</v>
@@ -35697,7 +35851,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="76" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C18" s="123" t="s">
         <v>81</v>
@@ -35708,7 +35862,7 @@
       </c>
       <c r="F18" s="124"/>
       <c r="G18" s="124" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H18" s="124">
         <v>3</v>
@@ -35753,6 +35907,344 @@
         <v>83</v>
       </c>
       <c r="H20" s="124"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5268BCE8-3AF8-40DB-B6E8-010CE2B987E9}">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="3" max="3" width="26.77734375" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" customWidth="1"/>
+    <col min="8" max="8" width="9.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="149"/>
+      <c r="B1" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="151" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="152"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="154" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" s="155"/>
+    </row>
+    <row r="2" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="A2" s="137"/>
+      <c r="B2" s="139" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="141" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="156"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="158" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="159" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="160"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="138"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="158" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="161"/>
+      <c r="H3" s="160"/>
+    </row>
+    <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="A4" s="162"/>
+      <c r="B4" s="150" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="147" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="152"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="150" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="163">
+        <v>45446</v>
+      </c>
+      <c r="H4" s="155"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="164"/>
+      <c r="B5" s="165"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="166"/>
+      <c r="E5" s="166"/>
+      <c r="F5" s="166"/>
+      <c r="G5" s="165"/>
+      <c r="H5" s="165"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="162"/>
+      <c r="B6" s="150" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="167"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="169"/>
+      <c r="H6" s="167"/>
+    </row>
+    <row r="7" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="164"/>
+      <c r="B7" s="170" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="170" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="171"/>
+      <c r="E7" s="172"/>
+      <c r="F7" s="172"/>
+      <c r="G7" s="172"/>
+      <c r="H7" s="165"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="164"/>
+      <c r="B8" s="165" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="165" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="166"/>
+      <c r="E8" s="172"/>
+      <c r="F8" s="172"/>
+      <c r="G8" s="172"/>
+      <c r="H8" s="165"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="164"/>
+      <c r="B9" s="165" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="171">
+        <v>123</v>
+      </c>
+      <c r="D9" s="166"/>
+      <c r="E9" s="172"/>
+      <c r="F9" s="172"/>
+      <c r="G9" s="172"/>
+      <c r="H9" s="165"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="164"/>
+      <c r="B10" s="165"/>
+      <c r="C10" s="165"/>
+      <c r="D10" s="166"/>
+      <c r="E10" s="166"/>
+      <c r="F10" s="166"/>
+      <c r="G10" s="165"/>
+      <c r="H10" s="165"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="173">
+        <v>8</v>
+      </c>
+      <c r="B11" s="174" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="175" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="176">
+        <v>5</v>
+      </c>
+      <c r="E11" s="176">
+        <v>3</v>
+      </c>
+      <c r="F11" s="176">
+        <v>0</v>
+      </c>
+      <c r="G11" s="177" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="179" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="180" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="180" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="181" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="181" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="181" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="182" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="183" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="144">
+        <v>1</v>
+      </c>
+      <c r="B13" s="145" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="145" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="143" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="145"/>
+      <c r="F13" s="144"/>
+      <c r="G13" s="145" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="145"/>
+    </row>
+    <row r="14" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="144">
+        <v>2</v>
+      </c>
+      <c r="B14" s="145" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="145" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="143" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="145"/>
+      <c r="F14" s="144"/>
+      <c r="G14" s="145" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="145"/>
+    </row>
+    <row r="15" spans="1:8" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="144">
+        <v>3</v>
+      </c>
+      <c r="B15" s="145" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="145" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="143" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="145"/>
+      <c r="F15" s="144"/>
+      <c r="G15" s="145" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="145"/>
+    </row>
+    <row r="16" spans="1:8" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="144">
+        <v>4</v>
+      </c>
+      <c r="B16" s="145" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="145" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="143" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="145"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="145" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="145"/>
+    </row>
+    <row r="17" spans="1:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="144">
+        <v>5</v>
+      </c>
+      <c r="B17" s="145" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="145" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="143" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="145"/>
+      <c r="F17" s="144"/>
+      <c r="G17" s="145" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="145"/>
+    </row>
+    <row r="18" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="148">
+        <v>8</v>
+      </c>
+      <c r="B18" s="146" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="184" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="185" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="185"/>
+      <c r="F18" s="185"/>
+      <c r="G18" s="184" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" s="185"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Стратегия тестирования.xlsx
+++ b/Стратегия тестирования.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9066625-2EAE-46EC-AFF5-ABC84BC3B00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60339F62-F765-4307-92C5-685C52A95BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="400" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Тест-план" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="Тест-кейс 1 Денисов" sheetId="3" r:id="rId3"/>
     <sheet name="Тест-кейс 2 Степанов" sheetId="8" r:id="rId4"/>
     <sheet name="Тест-кейс 3 Мартьянов" sheetId="9" r:id="rId5"/>
+    <sheet name="Тест-кейс 4 Смольков" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="138">
   <si>
     <t>Цели доработки</t>
   </si>
@@ -452,7 +453,16 @@
     <t>Мартьянов Денис</t>
   </si>
   <si>
-    <t>Смольков, Мартьяннов</t>
+    <t>Статистика</t>
+  </si>
+  <si>
+    <t>Тест-кейс 4</t>
+  </si>
+  <si>
+    <t>Смольков Александр</t>
+  </si>
+  <si>
+    <t>Пройти аутентификацию пользовтеля с ролью админ      login: alpha password: 111</t>
   </si>
 </sst>
 </file>
@@ -462,11 +472,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-mmm\-yyyy"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -691,7 +709,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1180,33 +1198,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1215,456 +1263,507 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="17" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="36" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="16" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="16" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="19" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="19" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="15" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="15" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="24" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="24" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="25" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="26" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="25" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="26" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="26" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="26" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="25" fillId="4" borderId="28" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="26" fillId="4" borderId="28" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="26" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="26" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="26" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="26" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="35" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="35" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="17" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="18" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="18" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="12" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="17" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="12"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="15" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="14" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="16" xfId="12" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="22" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="22" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="19" xfId="12" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="15" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="12" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="12" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="12" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="12" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="12" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="12" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="12" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="24" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="25" xfId="12" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="26" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="26" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="4" borderId="28" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="29" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="26" xfId="12" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="26" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="12" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="28" xfId="12" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="17" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="18" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="12" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="7" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="36" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="16" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="19" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="15" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="24" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="25" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="26" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="26" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="4" borderId="28" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="26" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="26" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="29">
+    <cellStyle name="60% - Accent3 2" xfId="17" xr:uid="{81855A75-163B-419C-87C5-8B3E17C8BDF9}"/>
     <cellStyle name="60% — акцент3" xfId="2" builtinId="40"/>
     <cellStyle name="60% — акцент3 2" xfId="5" xr:uid="{DD38E02B-D06E-4299-9B25-B0CED69E740F}"/>
     <cellStyle name="60% — акцент3 2 2" xfId="11" xr:uid="{62778AD9-8E31-4342-ACDE-A9DBF81083F8}"/>
+    <cellStyle name="60% — акцент3 2 2 2" xfId="28" xr:uid="{8C431064-5F6C-46D5-8679-4DBBB92BF9A8}"/>
+    <cellStyle name="60% — акцент3 2 3" xfId="24" xr:uid="{90E6320D-F470-476C-97D7-02BE952626C4}"/>
     <cellStyle name="60% — акцент3 3" xfId="9" xr:uid="{D41AD0A7-6B67-44EC-BA4D-3B6C26BA0235}"/>
+    <cellStyle name="60% — акцент3 3 2" xfId="26" xr:uid="{B9865A8B-4087-47E5-9C6C-0C736631C5C8}"/>
+    <cellStyle name="60% — акцент3 4" xfId="14" xr:uid="{EA6A5BF0-7549-4682-9306-0A093C0FB68F}"/>
+    <cellStyle name="Normal 2" xfId="15" xr:uid="{5B2CF897-23BB-4441-A78C-788DA72C3D49}"/>
+    <cellStyle name="Normal 3" xfId="18" xr:uid="{AD45F242-9983-433D-B58E-86C452605352}"/>
+    <cellStyle name="Normal 4" xfId="19" xr:uid="{CB35F75D-C2F5-4B57-9CB5-10CFE48F9189}"/>
+    <cellStyle name="Normal 5" xfId="20" xr:uid="{C14C548C-4BA6-4A18-A8DC-0804883E95E9}"/>
+    <cellStyle name="Normal 6" xfId="21" xr:uid="{C3E911E6-973F-4FCD-94A8-7081191D91A0}"/>
+    <cellStyle name="Normal 7" xfId="22" xr:uid="{C8A13848-15C2-43F3-BC17-DF0763653527}"/>
+    <cellStyle name="Normal 8" xfId="23" xr:uid="{78F3BA60-11E5-4349-999A-0E685943905C}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{BDCE208E-A001-445B-B95C-1F68C52A99BB}"/>
     <cellStyle name="Обычный 2 2" xfId="4" xr:uid="{3F14EB2C-9432-4844-A7E1-1D943D04C067}"/>
     <cellStyle name="Обычный 2 2 2" xfId="10" xr:uid="{18EEAAB2-4DA8-48B4-A309-FFB7214B4260}"/>
+    <cellStyle name="Обычный 2 2 2 2" xfId="27" xr:uid="{D3309CF7-FEAA-4E94-A430-5B404EB4B71A}"/>
+    <cellStyle name="Обычный 2 2 3" xfId="16" xr:uid="{F8ECD2AA-9CCD-4F3C-B0A0-5740140FD60A}"/>
     <cellStyle name="Обычный 2 3" xfId="8" xr:uid="{797A7B6C-F543-446A-A20F-82746A78A139}"/>
+    <cellStyle name="Обычный 2 3 2" xfId="25" xr:uid="{492CF596-7D76-4078-ACB8-FC292CC05353}"/>
+    <cellStyle name="Обычный 2 4" xfId="13" xr:uid="{7F7DF2B2-52AF-4824-8DCF-BA609CEA6000}"/>
     <cellStyle name="Обычный 3" xfId="3" xr:uid="{FF0643F8-AD5B-49CB-8D90-D6EDA969D924}"/>
     <cellStyle name="Обычный 4" xfId="6" xr:uid="{3B7BBB30-AAE7-48A5-B0DB-EBF74D43467D}"/>
     <cellStyle name="Обычный 5" xfId="7" xr:uid="{3F45BC02-D0F4-4BA2-9110-8756DDA6E445}"/>
+    <cellStyle name="Обычный 6" xfId="12" xr:uid="{DE2CDFC0-0486-4B55-AAE8-83B537A39564}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1979,7 +2078,7 @@
   <dimension ref="A1:AC1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2418,8 +2517,8 @@
       <c r="H12" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="I12" s="9" t="s">
-        <v>134</v>
+      <c r="I12" s="198" t="s">
+        <v>41</v>
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="1"/>
@@ -2489,7 +2588,7 @@
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="51" t="s">
         <v>44</v>
       </c>
@@ -2506,14 +2605,14 @@
         <v>109</v>
       </c>
       <c r="F14" s="55" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="9" t="s">
-        <v>41</v>
+      <c r="I14" s="198" t="s">
+        <v>39</v>
       </c>
       <c r="J14" s="10"/>
       <c r="K14" s="1"/>
@@ -33148,8 +33247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0839C95-2436-4E60-B166-FE667F7FDF76}">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33200,7 +33299,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="134" t="s">
         <v>48</v>
       </c>
       <c r="B2" s="57" t="s">
@@ -33225,7 +33324,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="127"/>
+      <c r="A3" s="132"/>
       <c r="B3" s="57" t="s">
         <v>71</v>
       </c>
@@ -33271,7 +33370,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="130" t="s">
+      <c r="A5" s="135" t="s">
         <v>52</v>
       </c>
       <c r="B5" s="57" t="s">
@@ -33292,7 +33391,7 @@
       <c r="K5" s="57"/>
     </row>
     <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="127"/>
+      <c r="A6" s="132"/>
       <c r="B6" s="57" t="s">
         <v>73</v>
       </c>
@@ -33330,7 +33429,7 @@
       <c r="K7" s="57"/>
     </row>
     <row r="8" spans="1:11" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="130" t="s">
+      <c r="A8" s="135" t="s">
         <v>56</v>
       </c>
       <c r="B8" s="57" t="s">
@@ -33355,7 +33454,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="127"/>
+      <c r="A9" s="132"/>
       <c r="B9" s="57" t="s">
         <v>94</v>
       </c>
@@ -33534,7 +33633,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="130" t="s">
+      <c r="A16" s="135" t="s">
         <v>59</v>
       </c>
       <c r="B16" s="57" t="s">
@@ -33554,12 +33653,12 @@
       <c r="H16" s="57"/>
       <c r="I16" s="57"/>
       <c r="J16" s="57"/>
-      <c r="K16" s="186">
+      <c r="K16" s="125">
         <v>45446</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="127"/>
+      <c r="A17" s="132"/>
       <c r="B17" s="57" t="s">
         <v>60</v>
       </c>
@@ -33577,7 +33676,7 @@
       <c r="H17" s="57"/>
       <c r="I17" s="57"/>
       <c r="J17" s="57"/>
-      <c r="K17" s="186">
+      <c r="K17" s="125">
         <v>45446</v>
       </c>
     </row>
@@ -33600,7 +33699,7 @@
       <c r="H18" s="57"/>
       <c r="I18" s="57"/>
       <c r="J18" s="57"/>
-      <c r="K18" s="186">
+      <c r="K18" s="125">
         <v>45446</v>
       </c>
     </row>
@@ -33623,7 +33722,7 @@
       <c r="H19" s="57"/>
       <c r="I19" s="57"/>
       <c r="J19" s="57"/>
-      <c r="K19" s="186">
+      <c r="K19" s="125">
         <v>45446</v>
       </c>
     </row>
@@ -33646,7 +33745,7 @@
       <c r="H20" s="57"/>
       <c r="I20" s="57"/>
       <c r="J20" s="57"/>
-      <c r="K20" s="186">
+      <c r="K20" s="125">
         <v>45446</v>
       </c>
     </row>
@@ -33765,7 +33864,7 @@
       <c r="K28" s="57"/>
     </row>
     <row r="29" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="128" t="s">
+      <c r="A29" s="133" t="s">
         <v>87</v>
       </c>
       <c r="B29" s="57" t="s">
@@ -33786,7 +33885,7 @@
       <c r="K29" s="57"/>
     </row>
     <row r="30" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="127"/>
+      <c r="A30" s="132"/>
       <c r="B30" s="57" t="s">
         <v>60</v>
       </c>
@@ -33982,7 +34081,7 @@
       <c r="K41" s="57"/>
     </row>
     <row r="42" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="126" t="s">
+      <c r="A42" s="131" t="s">
         <v>110</v>
       </c>
       <c r="B42" s="57" t="s">
@@ -33991,35 +34090,43 @@
       <c r="C42" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="D42" s="58"/>
+      <c r="D42" s="58" t="s">
+        <v>93</v>
+      </c>
       <c r="E42" s="57"/>
-      <c r="F42" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="G42" s="57"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="57" t="s">
+        <v>53</v>
+      </c>
       <c r="H42" s="57"/>
       <c r="I42" s="57"/>
       <c r="J42" s="57"/>
-      <c r="K42" s="57"/>
+      <c r="K42" s="125">
+        <v>45448</v>
+      </c>
     </row>
     <row r="43" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="127"/>
+      <c r="A43" s="132"/>
       <c r="B43" s="57" t="s">
         <v>111</v>
       </c>
       <c r="C43" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="58"/>
+      <c r="D43" s="58" t="s">
+        <v>93</v>
+      </c>
       <c r="E43" s="57"/>
-      <c r="F43" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="G43" s="57"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="57" t="s">
+        <v>61</v>
+      </c>
       <c r="H43" s="57"/>
       <c r="I43" s="57"/>
       <c r="J43" s="57"/>
-      <c r="K43" s="57"/>
+      <c r="K43" s="125">
+        <v>45448</v>
+      </c>
     </row>
     <row r="44" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="60"/>
@@ -34029,16 +34136,20 @@
       <c r="C44" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="D44" s="57"/>
+      <c r="D44" s="58" t="s">
+        <v>93</v>
+      </c>
       <c r="E44" s="57"/>
-      <c r="F44" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="G44" s="57"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="57" t="s">
+        <v>112</v>
+      </c>
       <c r="H44" s="57"/>
       <c r="I44" s="57"/>
       <c r="J44" s="57"/>
-      <c r="K44" s="57"/>
+      <c r="K44" s="125">
+        <v>45448</v>
+      </c>
     </row>
     <row r="45" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="60"/>
@@ -34048,16 +34159,20 @@
       <c r="C45" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="D45" s="57"/>
+      <c r="D45" s="58" t="s">
+        <v>93</v>
+      </c>
       <c r="E45" s="57"/>
-      <c r="F45" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="G45" s="57"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="57" t="s">
+        <v>114</v>
+      </c>
       <c r="H45" s="57"/>
       <c r="I45" s="57"/>
       <c r="J45" s="57"/>
-      <c r="K45" s="57"/>
+      <c r="K45" s="125">
+        <v>45448</v>
+      </c>
     </row>
     <row r="46" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A46" s="60"/>
@@ -34067,16 +34182,20 @@
       <c r="C46" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="D46" s="57"/>
+      <c r="D46" s="58" t="s">
+        <v>93</v>
+      </c>
       <c r="E46" s="57"/>
-      <c r="F46" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="G46" s="57"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="57" t="s">
+        <v>114</v>
+      </c>
       <c r="H46" s="57"/>
       <c r="I46" s="57"/>
       <c r="J46" s="57"/>
-      <c r="K46" s="57"/>
+      <c r="K46" s="125">
+        <v>45448</v>
+      </c>
     </row>
     <row r="47" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A47" s="60"/>
@@ -34086,16 +34205,20 @@
       <c r="C47" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="D47" s="57"/>
+      <c r="D47" s="58" t="s">
+        <v>93</v>
+      </c>
       <c r="E47" s="57"/>
-      <c r="F47" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="G47" s="57"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="57" t="s">
+        <v>114</v>
+      </c>
       <c r="H47" s="57"/>
       <c r="I47" s="57"/>
       <c r="J47" s="57"/>
-      <c r="K47" s="57"/>
+      <c r="K47" s="125">
+        <v>45448</v>
+      </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="60"/>
@@ -34263,11 +34386,11 @@
       <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="131"/>
-      <c r="B2" s="133" t="s">
+      <c r="A2" s="136"/>
+      <c r="B2" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="135" t="s">
+      <c r="C2" s="140" t="s">
         <v>48</v>
       </c>
       <c r="D2" s="23"/>
@@ -34281,9 +34404,9 @@
       <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="132"/>
-      <c r="B3" s="134"/>
-      <c r="C3" s="136"/>
+      <c r="A3" s="137"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="141"/>
       <c r="D3" s="23"/>
       <c r="E3" s="24"/>
       <c r="F3" s="25" t="s">
@@ -35567,11 +35690,11 @@
       <c r="H1" s="94"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="137"/>
-      <c r="B2" s="139" t="s">
+      <c r="A2" s="142"/>
+      <c r="B2" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="141" t="s">
+      <c r="C2" s="146" t="s">
         <v>121</v>
       </c>
       <c r="D2" s="95"/>
@@ -35585,9 +35708,9 @@
       <c r="H2" s="99"/>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="138"/>
-      <c r="B3" s="140"/>
-      <c r="C3" s="142"/>
+      <c r="A3" s="143"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="147"/>
       <c r="D3" s="95"/>
       <c r="E3" s="96"/>
       <c r="F3" s="97" t="s">
@@ -35935,316 +36058,654 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="149"/>
-      <c r="B1" s="150" t="s">
+      <c r="A1" s="88"/>
+      <c r="B1" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="151" t="s">
+      <c r="C1" s="90" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="152"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="150" t="s">
+      <c r="D1" s="91"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="154" t="s">
+      <c r="G1" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="H1" s="155"/>
+      <c r="H1" s="94"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="142"/>
+      <c r="B2" s="144" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="146" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="97" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="98" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="99"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="143"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="97" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="100"/>
+      <c r="H3" s="99"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="101"/>
+      <c r="B4" s="89" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="81" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="91"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="89" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="102">
+        <v>45446</v>
+      </c>
+      <c r="H4" s="94"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="103"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="101"/>
+      <c r="B6" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="106"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="106"/>
+    </row>
+    <row r="7" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="103"/>
+      <c r="B7" s="109" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="109" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="110"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="104"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="103"/>
+      <c r="B8" s="104" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="104" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="105"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="104"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="103"/>
+      <c r="B9" s="104" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="110">
+        <v>123</v>
+      </c>
+      <c r="D9" s="105"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="104"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="103"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="112">
+        <v>8</v>
+      </c>
+      <c r="B11" s="113" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="114" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="115">
+        <v>5</v>
+      </c>
+      <c r="E11" s="115">
+        <v>3</v>
+      </c>
+      <c r="F11" s="115">
+        <v>0</v>
+      </c>
+      <c r="G11" s="116" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="118" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="119" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="119" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="120" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="120" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="120" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="121" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="122" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="127">
+        <v>1</v>
+      </c>
+      <c r="B13" s="128" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="128" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="126" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="128"/>
+      <c r="F13" s="127"/>
+      <c r="G13" s="128" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="128"/>
+    </row>
+    <row r="14" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="127">
+        <v>2</v>
+      </c>
+      <c r="B14" s="128" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="128" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="126" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="128"/>
+      <c r="F14" s="127"/>
+      <c r="G14" s="128" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="128"/>
+    </row>
+    <row r="15" spans="1:8" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="127">
+        <v>3</v>
+      </c>
+      <c r="B15" s="128" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="128" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="126" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="128"/>
+      <c r="F15" s="127"/>
+      <c r="G15" s="128" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="128"/>
+    </row>
+    <row r="16" spans="1:8" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="127">
+        <v>4</v>
+      </c>
+      <c r="B16" s="128" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="128" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="126" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="128"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="128" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="128"/>
+    </row>
+    <row r="17" spans="1:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="127">
+        <v>5</v>
+      </c>
+      <c r="B17" s="128" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="128" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="126" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="128"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="128" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="128"/>
+    </row>
+    <row r="18" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="82">
+        <v>8</v>
+      </c>
+      <c r="B18" s="129" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="130" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="124" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="124"/>
+      <c r="F18" s="124"/>
+      <c r="G18" s="130" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" s="124"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56538AFE-4BB4-4DC2-8158-CCFD4F2F9355}">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="7" max="7" width="22.21875" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="A1" s="152"/>
+      <c r="B1" s="153" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="154" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="155"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="153" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="157" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="158"/>
     </row>
     <row r="2" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A2" s="137"/>
-      <c r="B2" s="139" t="s">
+      <c r="A2" s="150"/>
+      <c r="B2" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="141" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="156"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="158" t="s">
+      <c r="C2" s="195" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="159"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="161" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="159" t="s">
+      <c r="G2" s="162" t="s">
         <v>99</v>
       </c>
-      <c r="H2" s="160"/>
+      <c r="H2" s="163"/>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="138"/>
-      <c r="B3" s="140"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="158" t="s">
+      <c r="A3" s="149"/>
+      <c r="B3" s="194"/>
+      <c r="C3" s="196"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="161" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="161"/>
-      <c r="H3" s="160"/>
-    </row>
-    <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A4" s="162"/>
-      <c r="B4" s="150" t="s">
+      <c r="G3" s="164"/>
+      <c r="H3" s="163"/>
+    </row>
+    <row r="4" spans="1:8" ht="53.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="165"/>
+      <c r="B4" s="153" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="147" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" s="152"/>
-      <c r="E4" s="153"/>
-      <c r="F4" s="150" t="s">
+      <c r="C4" s="193" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="155"/>
+      <c r="E4" s="156"/>
+      <c r="F4" s="153" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="163">
-        <v>45446</v>
-      </c>
-      <c r="H4" s="155"/>
+      <c r="G4" s="166">
+        <v>45448</v>
+      </c>
+      <c r="H4" s="158"/>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="164"/>
-      <c r="B5" s="165"/>
-      <c r="C5" s="165"/>
-      <c r="D5" s="166"/>
-      <c r="E5" s="166"/>
-      <c r="F5" s="166"/>
-      <c r="G5" s="165"/>
-      <c r="H5" s="165"/>
+      <c r="A5" s="167"/>
+      <c r="B5" s="168"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="169"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="168"/>
+      <c r="H5" s="168"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="162"/>
-      <c r="B6" s="150" t="s">
+      <c r="A6" s="165"/>
+      <c r="B6" s="153" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="167"/>
-      <c r="D6" s="168"/>
-      <c r="E6" s="169"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="169"/>
-      <c r="H6" s="167"/>
+      <c r="C6" s="170"/>
+      <c r="D6" s="171"/>
+      <c r="E6" s="172"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
+      <c r="H6" s="170"/>
     </row>
     <row r="7" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="164"/>
-      <c r="B7" s="170" t="s">
+      <c r="A7" s="167"/>
+      <c r="B7" s="173" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="170" t="s">
+      <c r="C7" s="173" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="171"/>
-      <c r="E7" s="172"/>
-      <c r="F7" s="172"/>
-      <c r="G7" s="172"/>
-      <c r="H7" s="165"/>
+      <c r="D7" s="174"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="151"/>
+      <c r="H7" s="168"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="164"/>
-      <c r="B8" s="165" t="s">
+      <c r="A8" s="167"/>
+      <c r="B8" s="168" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="165" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="166"/>
-      <c r="E8" s="172"/>
-      <c r="F8" s="172"/>
-      <c r="G8" s="172"/>
-      <c r="H8" s="165"/>
+      <c r="C8" s="168" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="169"/>
+      <c r="E8" s="151"/>
+      <c r="F8" s="151"/>
+      <c r="G8" s="151"/>
+      <c r="H8" s="168"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="164"/>
-      <c r="B9" s="165" t="s">
+      <c r="A9" s="167"/>
+      <c r="B9" s="168" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="171">
-        <v>123</v>
-      </c>
-      <c r="D9" s="166"/>
-      <c r="E9" s="172"/>
-      <c r="F9" s="172"/>
-      <c r="G9" s="172"/>
-      <c r="H9" s="165"/>
+      <c r="C9" s="174">
+        <v>111</v>
+      </c>
+      <c r="D9" s="169"/>
+      <c r="E9" s="151"/>
+      <c r="F9" s="151"/>
+      <c r="G9" s="151"/>
+      <c r="H9" s="168"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="164"/>
-      <c r="B10" s="165"/>
-      <c r="C10" s="165"/>
-      <c r="D10" s="166"/>
-      <c r="E10" s="166"/>
-      <c r="F10" s="166"/>
-      <c r="G10" s="165"/>
-      <c r="H10" s="165"/>
+      <c r="A10" s="167"/>
+      <c r="B10" s="168"/>
+      <c r="C10" s="168"/>
+      <c r="D10" s="169"/>
+      <c r="E10" s="169"/>
+      <c r="F10" s="169"/>
+      <c r="G10" s="168"/>
+      <c r="H10" s="168"/>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="173">
-        <v>8</v>
-      </c>
-      <c r="B11" s="174" t="s">
+      <c r="A11" s="175">
+        <v>6</v>
+      </c>
+      <c r="B11" s="176" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="175" t="s">
+      <c r="C11" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="176">
+      <c r="D11" s="178">
+        <v>6</v>
+      </c>
+      <c r="E11" s="178">
+        <v>0</v>
+      </c>
+      <c r="F11" s="178">
+        <v>0</v>
+      </c>
+      <c r="G11" s="179" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="181" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="182" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="182" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="183" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="183" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="183" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="184" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="185" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="186">
+        <v>1</v>
+      </c>
+      <c r="B13" s="197" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="197" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="188" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="188"/>
+      <c r="F13" s="188"/>
+      <c r="G13" s="187" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="189"/>
+    </row>
+    <row r="14" spans="1:8" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="190">
+        <v>2</v>
+      </c>
+      <c r="B14" s="197" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="197" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="188" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="191"/>
+      <c r="F14" s="191"/>
+      <c r="G14" s="197" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="192"/>
+    </row>
+    <row r="15" spans="1:8" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="190">
+        <v>3</v>
+      </c>
+      <c r="B15" s="197" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="197" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="188" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="191"/>
+      <c r="F15" s="191"/>
+      <c r="G15" s="197" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" s="192"/>
+    </row>
+    <row r="16" spans="1:8" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="190">
+        <v>4</v>
+      </c>
+      <c r="B16" s="197" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="197" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="188" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="191"/>
+      <c r="F16" s="191"/>
+      <c r="G16" s="197" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" s="191"/>
+    </row>
+    <row r="17" spans="1:8" ht="76.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="190">
         <v>5</v>
       </c>
-      <c r="E11" s="176">
-        <v>3</v>
-      </c>
-      <c r="F11" s="176">
-        <v>0</v>
-      </c>
-      <c r="G11" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="179" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="180" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="180" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="181" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="181" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="181" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="182" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="183" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="144">
-        <v>1</v>
-      </c>
-      <c r="B13" s="145" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="145" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="143" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" s="145"/>
-      <c r="F13" s="144"/>
-      <c r="G13" s="145" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" s="145"/>
-    </row>
-    <row r="14" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="144">
-        <v>2</v>
-      </c>
-      <c r="B14" s="145" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="145" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="143" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" s="145"/>
-      <c r="F14" s="144"/>
-      <c r="G14" s="145" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14" s="145"/>
-    </row>
-    <row r="15" spans="1:8" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="144">
-        <v>3</v>
-      </c>
-      <c r="B15" s="145" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="145" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="143" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" s="145"/>
-      <c r="F15" s="144"/>
-      <c r="G15" s="145" t="s">
-        <v>82</v>
-      </c>
-      <c r="H15" s="145"/>
-    </row>
-    <row r="16" spans="1:8" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="144">
-        <v>4</v>
-      </c>
-      <c r="B16" s="145" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" s="145" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="143" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" s="145"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="145" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" s="145"/>
-    </row>
-    <row r="17" spans="1:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="144">
-        <v>5</v>
-      </c>
-      <c r="B17" s="145" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" s="145" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="143" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" s="145"/>
-      <c r="F17" s="144"/>
-      <c r="G17" s="145" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17" s="145"/>
-    </row>
-    <row r="18" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="148">
-        <v>8</v>
-      </c>
-      <c r="B18" s="146" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="184" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="185" t="s">
+      <c r="B17" s="197" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="197" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="188" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="185"/>
-      <c r="F18" s="185"/>
-      <c r="G18" s="184" t="s">
-        <v>83</v>
-      </c>
-      <c r="H18" s="185"/>
+      <c r="E17" s="191"/>
+      <c r="F17" s="191"/>
+      <c r="G17" s="197" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17" s="191"/>
+    </row>
+    <row r="18" spans="1:8" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="190">
+        <v>6</v>
+      </c>
+      <c r="B18" s="197" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="197" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="188" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="191"/>
+      <c r="F18" s="191"/>
+      <c r="G18" s="197" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" s="191"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Стратегия тестирования.xlsx
+++ b/Стратегия тестирования.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60339F62-F765-4307-92C5-685C52A95BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4178EE9-B1DE-46C9-A72C-71371EF34D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="400" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Тест-план" sheetId="1" r:id="rId1"/>
     <sheet name="Чек-лист" sheetId="7" r:id="rId2"/>
-    <sheet name="Тест-кейс 1 Денисов" sheetId="3" r:id="rId3"/>
-    <sheet name="Тест-кейс 2 Степанов" sheetId="8" r:id="rId4"/>
-    <sheet name="Тест-кейс 3 Мартьянов" sheetId="9" r:id="rId5"/>
-    <sheet name="Тест-кейс 4 Смольков" sheetId="10" r:id="rId6"/>
+    <sheet name="Дефект" sheetId="11" r:id="rId3"/>
+    <sheet name="Тест-кейс 1 Денисов" sheetId="3" r:id="rId4"/>
+    <sheet name="Тест-кейс 2 Степанов" sheetId="8" r:id="rId5"/>
+    <sheet name="Тест-кейс 3 Мартьянов" sheetId="9" r:id="rId6"/>
+    <sheet name="Тест-кейс 4 Смольков" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="164">
   <si>
     <t>Цели доработки</t>
   </si>
@@ -464,6 +465,99 @@
   <si>
     <t>Пройти аутентификацию пользовтеля с ролью админ      login: alpha password: 111</t>
   </si>
+  <si>
+    <t>Название</t>
+  </si>
+  <si>
+    <t>Фильтр по окончанию элемента</t>
+  </si>
+  <si>
+    <t>№ тест-кейса</t>
+  </si>
+  <si>
+    <t>Проект</t>
+  </si>
+  <si>
+    <t>Компонент</t>
+  </si>
+  <si>
+    <t>Номер версии</t>
+  </si>
+  <si>
+    <t>Важность:</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>Приоритет:</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Blocker</t>
+  </si>
+  <si>
+    <t>Opened</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Retest</t>
+  </si>
+  <si>
+    <t>Minor</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>Trivial</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>Назначен на</t>
+  </si>
+  <si>
+    <t>Автор</t>
+  </si>
+  <si>
+    <t>Описание</t>
+  </si>
+  <si>
+    <t>Вложения</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Шаги воспроизведения 
+1 Нажать кнопку "Graph"
+2 Нажать кнопки  "Send", "Return" 
+3 Нажать кнопку "Newton"
+4 Нажать кнопки  "Send", "Return" 
+5 Нажать кнопку "Music"
+6 Нажать кнопки  "Send", "Return" 
+7 Нажать кнопку "Statistics"
+8 Нажать кнопку "Exit"
+Ожидаемый результат:
+На сервер был отправлен ответ из поля, отобразился результат. Открылось главное окно.
+Наблюдаемый результат:
+Не отображается результат в окне "Graph".
+Не отображается результат в окне "Newton".
+Не отображается результат в окне "Music".
+</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
 </sst>
 </file>
 
@@ -472,7 +566,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-mmm\-yyyy"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -676,8 +770,23 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -708,8 +817,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="41">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -1211,6 +1326,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1243,7 +1427,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1567,52 +1751,6 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="35" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="17" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="18" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="18" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="12" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="17" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="12"/>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1720,6 +1858,58 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="35" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="17" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="18" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="17" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="12" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="18" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="12" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1727,12 +1917,49 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="21"/>
   </cellXfs>
   <cellStyles count="29">
     <cellStyle name="60% - Accent3 2" xfId="17" xr:uid="{81855A75-163B-419C-87C5-8B3E17C8BDF9}"/>
@@ -2517,7 +2744,7 @@
       <c r="H12" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="I12" s="198" t="s">
+      <c r="I12" s="175" t="s">
         <v>41</v>
       </c>
       <c r="J12" s="10"/>
@@ -2611,7 +2838,7 @@
       <c r="H14" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="198" t="s">
+      <c r="I14" s="175" t="s">
         <v>39</v>
       </c>
       <c r="J14" s="10"/>
@@ -33247,8 +33474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0839C95-2436-4E60-B166-FE667F7FDF76}">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33299,7 +33526,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="134" t="s">
+      <c r="A2" s="179" t="s">
         <v>48</v>
       </c>
       <c r="B2" s="57" t="s">
@@ -33324,7 +33551,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="132"/>
+      <c r="A3" s="177"/>
       <c r="B3" s="57" t="s">
         <v>71</v>
       </c>
@@ -33370,7 +33597,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="135" t="s">
+      <c r="A5" s="180" t="s">
         <v>52</v>
       </c>
       <c r="B5" s="57" t="s">
@@ -33391,7 +33618,7 @@
       <c r="K5" s="57"/>
     </row>
     <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="132"/>
+      <c r="A6" s="177"/>
       <c r="B6" s="57" t="s">
         <v>73</v>
       </c>
@@ -33429,7 +33656,7 @@
       <c r="K7" s="57"/>
     </row>
     <row r="8" spans="1:11" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="135" t="s">
+      <c r="A8" s="180" t="s">
         <v>56</v>
       </c>
       <c r="B8" s="57" t="s">
@@ -33454,7 +33681,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="132"/>
+      <c r="A9" s="177"/>
       <c r="B9" s="57" t="s">
         <v>94</v>
       </c>
@@ -33633,7 +33860,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="135" t="s">
+      <c r="A16" s="180" t="s">
         <v>59</v>
       </c>
       <c r="B16" s="57" t="s">
@@ -33658,7 +33885,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="132"/>
+      <c r="A17" s="177"/>
       <c r="B17" s="57" t="s">
         <v>60</v>
       </c>
@@ -33864,7 +34091,7 @@
       <c r="K28" s="57"/>
     </row>
     <row r="29" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="133" t="s">
+      <c r="A29" s="178" t="s">
         <v>87</v>
       </c>
       <c r="B29" s="57" t="s">
@@ -33885,7 +34112,7 @@
       <c r="K29" s="57"/>
     </row>
     <row r="30" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="132"/>
+      <c r="A30" s="177"/>
       <c r="B30" s="57" t="s">
         <v>60</v>
       </c>
@@ -34081,7 +34308,7 @@
       <c r="K41" s="57"/>
     </row>
     <row r="42" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="131" t="s">
+      <c r="A42" s="176" t="s">
         <v>110</v>
       </c>
       <c r="B42" s="57" t="s">
@@ -34106,7 +34333,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="132"/>
+      <c r="A43" s="177"/>
       <c r="B43" s="57" t="s">
         <v>111</v>
       </c>
@@ -34348,6 +34575,212 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466E76D6-2DF7-426E-8472-81C95668364C}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="28.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="199" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="207" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="208"/>
+      <c r="D1" s="209"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="200" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="201">
+        <v>1</v>
+      </c>
+      <c r="C2" s="202" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="200" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="201"/>
+      <c r="C3" s="202" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="203"/>
+    </row>
+    <row r="4" spans="1:4" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="200" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="203" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="202" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="203"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="200" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="203" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="202" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="203" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="204" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="205" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="203" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="203"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="204" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="205" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="203" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" s="203"/>
+    </row>
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="204" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="205" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="203" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="203"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="204" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="203"/>
+      <c r="C9" s="203" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" s="203"/>
+    </row>
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="204" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" s="203"/>
+      <c r="C10" s="203" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="203"/>
+    </row>
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="200" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" s="203"/>
+      <c r="C11" s="202" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="203"/>
+    </row>
+    <row r="12" spans="1:4" ht="277.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="206" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12" s="210" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="211"/>
+      <c r="D12" s="212"/>
+    </row>
+    <row r="13" spans="1:4" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="200" t="s">
+        <v>161</v>
+      </c>
+      <c r="B13" s="207"/>
+      <c r="C13" s="208"/>
+      <c r="D13" s="209"/>
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F18" s="213"/>
+      <c r="G18" s="213"/>
+    </row>
+    <row r="19" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F19" s="213"/>
+      <c r="G19" s="213"/>
+    </row>
+    <row r="20" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F20" s="213"/>
+      <c r="G20" s="213"/>
+    </row>
+    <row r="21" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F21" s="213"/>
+      <c r="G21" s="213"/>
+    </row>
+    <row r="22" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F22" s="213"/>
+      <c r="G22" s="213"/>
+    </row>
+    <row r="23" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F23" s="213"/>
+      <c r="G23" s="213"/>
+    </row>
+    <row r="24" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F24" s="213"/>
+      <c r="G24" s="213"/>
+    </row>
+    <row r="25" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F25" s="213"/>
+      <c r="G25" s="213"/>
+    </row>
+    <row r="26" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F26" s="213"/>
+      <c r="G26" s="213"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H1001"/>
   <sheetViews>
@@ -34386,11 +34819,11 @@
       <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="136"/>
-      <c r="B2" s="138" t="s">
+      <c r="A2" s="181"/>
+      <c r="B2" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="140" t="s">
+      <c r="C2" s="185" t="s">
         <v>48</v>
       </c>
       <c r="D2" s="23"/>
@@ -34404,9 +34837,9 @@
       <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="137"/>
-      <c r="B3" s="139"/>
-      <c r="C3" s="141"/>
+      <c r="A3" s="182"/>
+      <c r="B3" s="184"/>
+      <c r="C3" s="186"/>
       <c r="D3" s="23"/>
       <c r="E3" s="24"/>
       <c r="F3" s="25" t="s">
@@ -35652,11 +36085,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4339E88-5DC7-4D49-BDA9-CCD5CAC76112}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -35690,11 +36123,11 @@
       <c r="H1" s="94"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="142"/>
-      <c r="B2" s="144" t="s">
+      <c r="A2" s="187"/>
+      <c r="B2" s="189" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="146" t="s">
+      <c r="C2" s="191" t="s">
         <v>121</v>
       </c>
       <c r="D2" s="95"/>
@@ -35708,9 +36141,9 @@
       <c r="H2" s="99"/>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="143"/>
-      <c r="B3" s="145"/>
-      <c r="C3" s="147"/>
+      <c r="A3" s="188"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="192"/>
       <c r="D3" s="95"/>
       <c r="E3" s="96"/>
       <c r="F3" s="97" t="s">
@@ -36041,7 +36474,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5268BCE8-3AF8-40DB-B6E8-010CE2B987E9}">
   <dimension ref="A1:H18"/>
   <sheetViews>
@@ -36076,11 +36509,11 @@
       <c r="H1" s="94"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="142"/>
-      <c r="B2" s="144" t="s">
+      <c r="A2" s="187"/>
+      <c r="B2" s="189" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="146" t="s">
+      <c r="C2" s="191" t="s">
         <v>59</v>
       </c>
       <c r="D2" s="95"/>
@@ -36094,9 +36527,9 @@
       <c r="H2" s="99"/>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="143"/>
-      <c r="B3" s="145"/>
-      <c r="C3" s="147"/>
+      <c r="A3" s="188"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="192"/>
       <c r="D3" s="95"/>
       <c r="E3" s="96"/>
       <c r="F3" s="97" t="s">
@@ -36379,11 +36812,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56538AFE-4BB4-4DC2-8158-CCFD4F2F9355}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
@@ -36395,317 +36828,317 @@
     <col min="8" max="8" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A1" s="152"/>
-      <c r="B1" s="153" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="132"/>
+      <c r="B1" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="154" t="s">
+      <c r="C1" s="134" t="s">
         <v>134</v>
       </c>
-      <c r="D1" s="155"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="153" t="s">
+      <c r="D1" s="135"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="157" t="s">
+      <c r="G1" s="137" t="s">
         <v>135</v>
       </c>
-      <c r="H1" s="158"/>
-    </row>
-    <row r="2" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A2" s="150"/>
-      <c r="B2" s="148" t="s">
+      <c r="H1" s="138"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="193"/>
+      <c r="B2" s="195" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="195" t="s">
+      <c r="C2" s="197" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="159"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="161" t="s">
+      <c r="D2" s="139"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="162" t="s">
+      <c r="G2" s="142" t="s">
         <v>99</v>
       </c>
-      <c r="H2" s="163"/>
+      <c r="H2" s="143"/>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="149"/>
-      <c r="B3" s="194"/>
-      <c r="C3" s="196"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="161" t="s">
+      <c r="A3" s="194"/>
+      <c r="B3" s="196"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="164"/>
-      <c r="H3" s="163"/>
-    </row>
-    <row r="4" spans="1:8" ht="53.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="165"/>
-      <c r="B4" s="153" t="s">
+      <c r="G3" s="144"/>
+      <c r="H3" s="143"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="145"/>
+      <c r="B4" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="193" t="s">
+      <c r="C4" s="173" t="s">
         <v>136</v>
       </c>
-      <c r="D4" s="155"/>
-      <c r="E4" s="156"/>
-      <c r="F4" s="153" t="s">
+      <c r="D4" s="135"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="166">
+      <c r="G4" s="146">
         <v>45448</v>
       </c>
-      <c r="H4" s="158"/>
+      <c r="H4" s="138"/>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="167"/>
-      <c r="B5" s="168"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="169"/>
-      <c r="E5" s="169"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="168"/>
-      <c r="H5" s="168"/>
+      <c r="A5" s="147"/>
+      <c r="B5" s="148"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="149"/>
+      <c r="E5" s="149"/>
+      <c r="F5" s="149"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="148"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="165"/>
-      <c r="B6" s="153" t="s">
+      <c r="A6" s="145"/>
+      <c r="B6" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="170"/>
-      <c r="D6" s="171"/>
-      <c r="E6" s="172"/>
-      <c r="F6" s="172"/>
-      <c r="G6" s="172"/>
-      <c r="H6" s="170"/>
+      <c r="C6" s="150"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="152"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="152"/>
+      <c r="H6" s="150"/>
     </row>
     <row r="7" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="167"/>
-      <c r="B7" s="173" t="s">
+      <c r="A7" s="147"/>
+      <c r="B7" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="173" t="s">
+      <c r="C7" s="153" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="174"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="151"/>
-      <c r="G7" s="151"/>
-      <c r="H7" s="168"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="148"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="167"/>
-      <c r="B8" s="168" t="s">
+      <c r="A8" s="147"/>
+      <c r="B8" s="148" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="168" t="s">
+      <c r="C8" s="148" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="169"/>
-      <c r="E8" s="151"/>
-      <c r="F8" s="151"/>
-      <c r="G8" s="151"/>
-      <c r="H8" s="168"/>
+      <c r="D8" s="149"/>
+      <c r="E8" s="131"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="148"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="167"/>
-      <c r="B9" s="168" t="s">
+      <c r="A9" s="147"/>
+      <c r="B9" s="148" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="174">
+      <c r="C9" s="154">
         <v>111</v>
       </c>
-      <c r="D9" s="169"/>
-      <c r="E9" s="151"/>
-      <c r="F9" s="151"/>
-      <c r="G9" s="151"/>
-      <c r="H9" s="168"/>
+      <c r="D9" s="149"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="148"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="167"/>
-      <c r="B10" s="168"/>
-      <c r="C10" s="168"/>
-      <c r="D10" s="169"/>
-      <c r="E10" s="169"/>
-      <c r="F10" s="169"/>
-      <c r="G10" s="168"/>
-      <c r="H10" s="168"/>
+      <c r="A10" s="147"/>
+      <c r="B10" s="148"/>
+      <c r="C10" s="148"/>
+      <c r="D10" s="149"/>
+      <c r="E10" s="149"/>
+      <c r="F10" s="149"/>
+      <c r="G10" s="148"/>
+      <c r="H10" s="148"/>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="175">
+      <c r="A11" s="155">
         <v>6</v>
       </c>
-      <c r="B11" s="176" t="s">
+      <c r="B11" s="156" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="177" t="s">
+      <c r="C11" s="157" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="178">
+      <c r="D11" s="158">
         <v>6</v>
       </c>
-      <c r="E11" s="178">
+      <c r="E11" s="158">
         <v>0</v>
       </c>
-      <c r="F11" s="178">
+      <c r="F11" s="158">
         <v>0</v>
       </c>
-      <c r="G11" s="179" t="s">
+      <c r="G11" s="159" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="180">
+      <c r="H11" s="160">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="181" t="s">
+      <c r="A12" s="161" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="182" t="s">
+      <c r="B12" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="182" t="s">
+      <c r="C12" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="183" t="s">
+      <c r="D12" s="163" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="183" t="s">
+      <c r="E12" s="163" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="183" t="s">
+      <c r="F12" s="163" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="184" t="s">
+      <c r="G12" s="164" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="185" t="s">
+      <c r="H12" s="165" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="186">
+      <c r="A13" s="166">
         <v>1</v>
       </c>
-      <c r="B13" s="197" t="s">
+      <c r="B13" s="174" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="197" t="s">
+      <c r="C13" s="174" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="188" t="s">
+      <c r="D13" s="168" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="188"/>
-      <c r="F13" s="188"/>
-      <c r="G13" s="187" t="s">
+      <c r="E13" s="168"/>
+      <c r="F13" s="168"/>
+      <c r="G13" s="167" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="189"/>
+      <c r="H13" s="169"/>
     </row>
     <row r="14" spans="1:8" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="190">
+      <c r="A14" s="170">
         <v>2</v>
       </c>
-      <c r="B14" s="197" t="s">
+      <c r="B14" s="174" t="s">
         <v>137</v>
       </c>
-      <c r="C14" s="197" t="s">
+      <c r="C14" s="174" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="188" t="s">
+      <c r="D14" s="168" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="191"/>
-      <c r="F14" s="191"/>
-      <c r="G14" s="197" t="s">
+      <c r="E14" s="171"/>
+      <c r="F14" s="171"/>
+      <c r="G14" s="174" t="s">
         <v>61</v>
       </c>
-      <c r="H14" s="192"/>
+      <c r="H14" s="172"/>
     </row>
     <row r="15" spans="1:8" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="190">
+      <c r="A15" s="170">
         <v>3</v>
       </c>
-      <c r="B15" s="197" t="s">
+      <c r="B15" s="174" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="197" t="s">
+      <c r="C15" s="174" t="s">
         <v>112</v>
       </c>
-      <c r="D15" s="188" t="s">
+      <c r="D15" s="168" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="191"/>
-      <c r="F15" s="191"/>
-      <c r="G15" s="197" t="s">
+      <c r="E15" s="171"/>
+      <c r="F15" s="171"/>
+      <c r="G15" s="174" t="s">
         <v>112</v>
       </c>
-      <c r="H15" s="192"/>
+      <c r="H15" s="172"/>
     </row>
     <row r="16" spans="1:8" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="190">
+      <c r="A16" s="170">
         <v>4</v>
       </c>
-      <c r="B16" s="197" t="s">
+      <c r="B16" s="174" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="197" t="s">
+      <c r="C16" s="174" t="s">
         <v>114</v>
       </c>
-      <c r="D16" s="188" t="s">
+      <c r="D16" s="168" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="191"/>
-      <c r="F16" s="191"/>
-      <c r="G16" s="197" t="s">
+      <c r="E16" s="171"/>
+      <c r="F16" s="171"/>
+      <c r="G16" s="174" t="s">
         <v>114</v>
       </c>
-      <c r="H16" s="191"/>
+      <c r="H16" s="171"/>
     </row>
     <row r="17" spans="1:8" ht="76.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="190">
+      <c r="A17" s="170">
         <v>5</v>
       </c>
-      <c r="B17" s="197" t="s">
+      <c r="B17" s="174" t="s">
         <v>116</v>
       </c>
-      <c r="C17" s="197" t="s">
+      <c r="C17" s="174" t="s">
         <v>114</v>
       </c>
-      <c r="D17" s="188" t="s">
+      <c r="D17" s="168" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="191"/>
-      <c r="F17" s="191"/>
-      <c r="G17" s="197" t="s">
+      <c r="E17" s="171"/>
+      <c r="F17" s="171"/>
+      <c r="G17" s="174" t="s">
         <v>114</v>
       </c>
-      <c r="H17" s="191"/>
+      <c r="H17" s="171"/>
     </row>
     <row r="18" spans="1:8" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="190">
+      <c r="A18" s="170">
         <v>6</v>
       </c>
-      <c r="B18" s="197" t="s">
+      <c r="B18" s="174" t="s">
         <v>115</v>
       </c>
-      <c r="C18" s="197" t="s">
+      <c r="C18" s="174" t="s">
         <v>114</v>
       </c>
-      <c r="D18" s="188" t="s">
+      <c r="D18" s="168" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="191"/>
-      <c r="F18" s="191"/>
-      <c r="G18" s="197" t="s">
+      <c r="E18" s="171"/>
+      <c r="F18" s="171"/>
+      <c r="G18" s="174" t="s">
         <v>114</v>
       </c>
-      <c r="H18" s="191"/>
+      <c r="H18" s="171"/>
     </row>
   </sheetData>
   <mergeCells count="3">
